--- a/Summaries/SP1/Real Madrid_Osasuna_adv.xlsx
+++ b/Summaries/SP1/Real Madrid_Osasuna_adv.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="955" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="971" uniqueCount="355">
   <si>
     <t>Div</t>
   </si>
@@ -508,130 +508,133 @@
     <t>Aer%</t>
   </si>
   <si>
-    <t>1010</t>
-  </si>
-  <si>
-    <t>1404</t>
-  </si>
-  <si>
-    <t>1397</t>
-  </si>
-  <si>
-    <t>2061</t>
-  </si>
-  <si>
-    <t>2227</t>
-  </si>
-  <si>
-    <t>1374</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>291</t>
-  </si>
-  <si>
-    <t>899</t>
-  </si>
-  <si>
-    <t>901</t>
-  </si>
-  <si>
-    <t>224</t>
-  </si>
-  <si>
-    <t>378</t>
-  </si>
-  <si>
-    <t>655</t>
-  </si>
-  <si>
-    <t>849</t>
-  </si>
-  <si>
-    <t>1332</t>
-  </si>
-  <si>
-    <t>1356</t>
+    <t>1015</t>
+  </si>
+  <si>
+    <t>1414</t>
+  </si>
+  <si>
+    <t>2076</t>
+  </si>
+  <si>
+    <t>1407</t>
+  </si>
+  <si>
+    <t>2242</t>
+  </si>
+  <si>
+    <t>1384</t>
+  </si>
+  <si>
+    <t>2120</t>
+  </si>
+  <si>
+    <t>292</t>
+  </si>
+  <si>
+    <t>395</t>
+  </si>
+  <si>
+    <t>904</t>
+  </si>
+  <si>
+    <t>906</t>
+  </si>
+  <si>
+    <t>225</t>
+  </si>
+  <si>
+    <t>379</t>
+  </si>
+  <si>
+    <t>659</t>
+  </si>
+  <si>
+    <t>854</t>
+  </si>
+  <si>
+    <t>1340</t>
+  </si>
+  <si>
+    <t>1365</t>
+  </si>
+  <si>
+    <t>2133</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t>313</t>
+  </si>
+  <si>
+    <t>486</t>
+  </si>
+  <si>
+    <t>754</t>
+  </si>
+  <si>
+    <t>798</t>
+  </si>
+  <si>
+    <t>943</t>
+  </si>
+  <si>
+    <t>1577</t>
+  </si>
+  <si>
+    <t>1641</t>
+  </si>
+  <si>
+    <t>129</t>
+  </si>
+  <si>
+    <t>349</t>
+  </si>
+  <si>
+    <t>397</t>
+  </si>
+  <si>
+    <t>479</t>
+  </si>
+  <si>
+    <t>559</t>
+  </si>
+  <si>
+    <t>752</t>
+  </si>
+  <si>
+    <t>1223</t>
+  </si>
+  <si>
+    <t>1771</t>
+  </si>
+  <si>
+    <t>1797</t>
+  </si>
+  <si>
+    <t>2035</t>
   </si>
   <si>
     <t>2118</t>
   </si>
   <si>
-    <t>116</t>
-  </si>
-  <si>
-    <t>312</t>
-  </si>
-  <si>
-    <t>394</t>
-  </si>
-  <si>
-    <t>485</t>
-  </si>
-  <si>
-    <t>749</t>
-  </si>
-  <si>
-    <t>793</t>
-  </si>
-  <si>
-    <t>938</t>
-  </si>
-  <si>
-    <t>1566</t>
-  </si>
-  <si>
-    <t>1630</t>
-  </si>
-  <si>
-    <t>348</t>
-  </si>
-  <si>
-    <t>396</t>
-  </si>
-  <si>
-    <t>478</t>
-  </si>
-  <si>
-    <t>556</t>
-  </si>
-  <si>
-    <t>747</t>
-  </si>
-  <si>
-    <t>1215</t>
-  </si>
-  <si>
-    <t>1760</t>
-  </si>
-  <si>
-    <t>1786</t>
-  </si>
-  <si>
-    <t>2021</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
     <t>121</t>
   </si>
   <si>
-    <t>233</t>
-  </si>
-  <si>
-    <t>1296</t>
-  </si>
-  <si>
-    <t>1443</t>
-  </si>
-  <si>
-    <t>1713</t>
-  </si>
-  <si>
-    <t>2137</t>
+    <t>234</t>
+  </si>
+  <si>
+    <t>1304</t>
+  </si>
+  <si>
+    <t>1453</t>
+  </si>
+  <si>
+    <t>1724</t>
+  </si>
+  <si>
+    <t>2152</t>
   </si>
   <si>
     <t>Vinicius Júnior</t>
@@ -640,12 +643,12 @@
     <t>Jon Moncayola</t>
   </si>
   <si>
+    <t>Lucas Torró</t>
+  </si>
+  <si>
     <t>Luka Modrić</t>
   </si>
   <si>
-    <t>Lucas Torró</t>
-  </si>
-  <si>
     <t>Bryan Zaragoza</t>
   </si>
   <si>
@@ -661,6 +664,9 @@
     <t>Enzo Boyomo</t>
   </si>
   <si>
+    <t>Catena</t>
+  </si>
+  <si>
     <t>Jorge Herrando</t>
   </si>
   <si>
@@ -694,9 +700,6 @@
     <t>Ante Budimir</t>
   </si>
   <si>
-    <t>Catena</t>
-  </si>
-  <si>
     <t>Juan Cruz Armada</t>
   </si>
   <si>
@@ -715,6 +718,9 @@
     <t>Rubén Peña</t>
   </si>
   <si>
+    <t>Raúl Asencio</t>
+  </si>
+  <si>
     <t>Eduardo Camavinga</t>
   </si>
   <si>
@@ -823,133 +829,136 @@
     <t>es La Liga</t>
   </si>
   <si>
-    <t>24-120</t>
-  </si>
-  <si>
-    <t>26-180</t>
-  </si>
-  <si>
-    <t>39-061</t>
-  </si>
-  <si>
-    <t>30-113</t>
-  </si>
-  <si>
-    <t>23-198</t>
-  </si>
-  <si>
-    <t>26-296</t>
-  </si>
-  <si>
-    <t>26-110</t>
-  </si>
-  <si>
-    <t>24-080</t>
-  </si>
-  <si>
-    <t>23-033</t>
-  </si>
-  <si>
-    <t>23-255</t>
-  </si>
-  <si>
-    <t>31-157</t>
-  </si>
-  <si>
-    <t>21-133</t>
-  </si>
-  <si>
-    <t>32-303</t>
-  </si>
-  <si>
-    <t>18-111</t>
-  </si>
-  <si>
-    <t>19-258</t>
-  </si>
-  <si>
-    <t>25-325</t>
-  </si>
-  <si>
-    <t>29-154</t>
-  </si>
-  <si>
-    <t>33-131</t>
-  </si>
-  <si>
-    <t>25-130</t>
-  </si>
-  <si>
-    <t>33-110</t>
-  </si>
-  <si>
-    <t>30-012</t>
-  </si>
-  <si>
-    <t>32-104</t>
-  </si>
-  <si>
-    <t>31-118</t>
-  </si>
-  <si>
-    <t>30-139</t>
-  </si>
-  <si>
-    <t>26-050</t>
-  </si>
-  <si>
-    <t>22-348</t>
-  </si>
-  <si>
-    <t>33-114</t>
-  </si>
-  <si>
-    <t>21-365</t>
-  </si>
-  <si>
-    <t>28-094</t>
-  </si>
-  <si>
-    <t>32-182</t>
-  </si>
-  <si>
-    <t>25-098</t>
-  </si>
-  <si>
-    <t>25-087</t>
-  </si>
-  <si>
-    <t>25-272</t>
-  </si>
-  <si>
-    <t>23-305</t>
-  </si>
-  <si>
-    <t>31-251</t>
-  </si>
-  <si>
-    <t>24-287</t>
-  </si>
-  <si>
-    <t>27-309</t>
-  </si>
-  <si>
-    <t>29-208</t>
-  </si>
-  <si>
-    <t>22-091</t>
-  </si>
-  <si>
-    <t>24-323</t>
-  </si>
-  <si>
-    <t>22-004</t>
-  </si>
-  <si>
-    <t>24-006</t>
-  </si>
-  <si>
-    <t>29-290</t>
+    <t>24-127</t>
+  </si>
+  <si>
+    <t>26-187</t>
+  </si>
+  <si>
+    <t>30-120</t>
+  </si>
+  <si>
+    <t>39-068</t>
+  </si>
+  <si>
+    <t>23-205</t>
+  </si>
+  <si>
+    <t>26-303</t>
+  </si>
+  <si>
+    <t>26-117</t>
+  </si>
+  <si>
+    <t>24-087</t>
+  </si>
+  <si>
+    <t>23-040</t>
+  </si>
+  <si>
+    <t>30-019</t>
+  </si>
+  <si>
+    <t>23-262</t>
+  </si>
+  <si>
+    <t>31-164</t>
+  </si>
+  <si>
+    <t>21-140</t>
+  </si>
+  <si>
+    <t>32-310</t>
+  </si>
+  <si>
+    <t>18-118</t>
+  </si>
+  <si>
+    <t>19-265</t>
+  </si>
+  <si>
+    <t>25-332</t>
+  </si>
+  <si>
+    <t>29-161</t>
+  </si>
+  <si>
+    <t>33-138</t>
+  </si>
+  <si>
+    <t>25-137</t>
+  </si>
+  <si>
+    <t>33-117</t>
+  </si>
+  <si>
+    <t>32-111</t>
+  </si>
+  <si>
+    <t>31-125</t>
+  </si>
+  <si>
+    <t>30-146</t>
+  </si>
+  <si>
+    <t>26-057</t>
+  </si>
+  <si>
+    <t>22-355</t>
+  </si>
+  <si>
+    <t>33-121</t>
+  </si>
+  <si>
+    <t>21-277</t>
+  </si>
+  <si>
+    <t>22-006</t>
+  </si>
+  <si>
+    <t>28-101</t>
+  </si>
+  <si>
+    <t>32-189</t>
+  </si>
+  <si>
+    <t>25-105</t>
+  </si>
+  <si>
+    <t>25-094</t>
+  </si>
+  <si>
+    <t>25-279</t>
+  </si>
+  <si>
+    <t>23-312</t>
+  </si>
+  <si>
+    <t>31-258</t>
+  </si>
+  <si>
+    <t>24-294</t>
+  </si>
+  <si>
+    <t>27-316</t>
+  </si>
+  <si>
+    <t>29-215</t>
+  </si>
+  <si>
+    <t>22-098</t>
+  </si>
+  <si>
+    <t>24-330</t>
+  </si>
+  <si>
+    <t>22-011</t>
+  </si>
+  <si>
+    <t>24-013</t>
+  </si>
+  <si>
+    <t>29-297</t>
   </si>
   <si>
     <t>2000</t>
@@ -958,10 +967,10 @@
     <t>1998</t>
   </si>
   <si>
+    <t>1994</t>
+  </si>
+  <si>
     <t>1985</t>
-  </si>
-  <si>
-    <t>1994</t>
   </si>
   <si>
     <t>2001</t>
@@ -3758,31 +3767,31 @@
         <v>164</v>
       </c>
       <c r="B2" t="n">
-        <v>1028.0</v>
+        <v>1033.0</v>
       </c>
       <c r="C2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="E2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F2" t="s">
         <v>94</v>
       </c>
       <c r="G2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="I2" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="J2" t="n">
-        <v>10.1</v>
+        <v>10.9</v>
       </c>
       <c r="K2" t="n">
         <v>4.0</v>
@@ -3797,19 +3806,19 @@
         <v>20.0</v>
       </c>
       <c r="O2" t="n">
-        <v>31.0</v>
+        <v>35.0</v>
       </c>
       <c r="P2" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="Q2" t="n">
-        <v>20.0</v>
+        <v>26.0</v>
       </c>
       <c r="R2" t="n">
         <v>0.0</v>
       </c>
       <c r="S2" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="T2" t="n">
         <v>2.0</v>
@@ -3821,7 +3830,7 @@
         <v>0.0</v>
       </c>
       <c r="W2" t="n">
-        <v>26.0</v>
+        <v>29.0</v>
       </c>
       <c r="X2" t="n">
         <v>1.0</v>
@@ -3838,31 +3847,31 @@
         <v>165</v>
       </c>
       <c r="B3" t="n">
-        <v>1424.0</v>
+        <v>1434.0</v>
       </c>
       <c r="C3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D3" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E3" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="F3" t="s">
         <v>97</v>
       </c>
       <c r="G3" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="I3" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="J3" t="n">
-        <v>7.7</v>
+        <v>8.6</v>
       </c>
       <c r="K3" t="n">
         <v>4.0</v>
@@ -3874,7 +3883,7 @@
         <v>0.0</v>
       </c>
       <c r="N3" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="O3" t="n">
         <v>3.0</v>
@@ -3883,13 +3892,13 @@
         <v>0.0</v>
       </c>
       <c r="Q3" t="n">
-        <v>41.0</v>
+        <v>44.0</v>
       </c>
       <c r="R3" t="n">
         <v>6.0</v>
       </c>
       <c r="S3" t="n">
-        <v>13.0</v>
+        <v>15.0</v>
       </c>
       <c r="T3" t="n">
         <v>0.0</v>
@@ -3901,7 +3910,7 @@
         <v>0.0</v>
       </c>
       <c r="W3" t="n">
-        <v>31.0</v>
+        <v>33.0</v>
       </c>
       <c r="X3" t="n">
         <v>4.0</v>
@@ -3918,34 +3927,34 @@
         <v>166</v>
       </c>
       <c r="B4" t="n">
-        <v>1417.0</v>
+        <v>2103.0</v>
       </c>
       <c r="C4" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D4" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E4" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F4" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G4" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H4" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="I4" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="J4" t="n">
-        <v>6.1</v>
+        <v>12.5</v>
       </c>
       <c r="K4" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="L4" t="n">
         <v>0.0</v>
@@ -3954,22 +3963,22 @@
         <v>0.0</v>
       </c>
       <c r="N4" t="n">
-        <v>10.0</v>
+        <v>33.0</v>
       </c>
       <c r="O4" t="n">
-        <v>5.0</v>
+        <v>16.0</v>
       </c>
       <c r="P4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q4" t="n">
-        <v>35.0</v>
+        <v>1.0</v>
       </c>
       <c r="R4" t="n">
-        <v>6.0</v>
+        <v>18.0</v>
       </c>
       <c r="S4" t="n">
-        <v>1.0</v>
+        <v>17.0</v>
       </c>
       <c r="T4" t="n">
         <v>0.0</v>
@@ -3981,16 +3990,16 @@
         <v>0.0</v>
       </c>
       <c r="W4" t="n">
-        <v>31.0</v>
+        <v>63.0</v>
       </c>
       <c r="X4" t="n">
-        <v>1.0</v>
+        <v>61.0</v>
       </c>
       <c r="Y4" t="n">
-        <v>4.0</v>
+        <v>17.0</v>
       </c>
       <c r="Z4" t="n">
-        <v>20.0</v>
+        <v>78.2</v>
       </c>
     </row>
     <row r="5">
@@ -3998,31 +4007,31 @@
         <v>167</v>
       </c>
       <c r="B5" t="n">
-        <v>2088.0</v>
+        <v>1427.0</v>
       </c>
       <c r="C5" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D5" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="E5" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G5" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H5" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="I5" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="J5" t="n">
-        <v>11.5</v>
+        <v>6.6</v>
       </c>
       <c r="K5" t="n">
         <v>3.0</v>
@@ -4034,22 +4043,22 @@
         <v>0.0</v>
       </c>
       <c r="N5" t="n">
-        <v>29.0</v>
+        <v>10.0</v>
       </c>
       <c r="O5" t="n">
-        <v>14.0</v>
+        <v>5.0</v>
       </c>
       <c r="P5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.0</v>
+        <v>36.0</v>
       </c>
       <c r="R5" t="n">
-        <v>16.0</v>
+        <v>7.0</v>
       </c>
       <c r="S5" t="n">
-        <v>14.0</v>
+        <v>2.0</v>
       </c>
       <c r="T5" t="n">
         <v>0.0</v>
@@ -4061,16 +4070,16 @@
         <v>0.0</v>
       </c>
       <c r="W5" t="n">
-        <v>59.0</v>
+        <v>34.0</v>
       </c>
       <c r="X5" t="n">
-        <v>60.0</v>
+        <v>1.0</v>
       </c>
       <c r="Y5" t="n">
-        <v>16.0</v>
+        <v>4.0</v>
       </c>
       <c r="Z5" t="n">
-        <v>78.9</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="6">
@@ -4078,31 +4087,31 @@
         <v>168</v>
       </c>
       <c r="B6" t="n">
-        <v>2257.0</v>
+        <v>2272.0</v>
       </c>
       <c r="C6" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D6" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E6" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F6" t="s">
         <v>97</v>
       </c>
       <c r="G6" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H6" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="I6" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="J6" t="n">
-        <v>9.1</v>
+        <v>10.0</v>
       </c>
       <c r="K6" t="n">
         <v>3.0</v>
@@ -4123,7 +4132,7 @@
         <v>4.0</v>
       </c>
       <c r="Q6" t="n">
-        <v>39.0</v>
+        <v>41.0</v>
       </c>
       <c r="R6" t="n">
         <v>0.0</v>
@@ -4141,7 +4150,7 @@
         <v>0.0</v>
       </c>
       <c r="W6" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="X6" t="n">
         <v>0.0</v>
@@ -4158,31 +4167,31 @@
         <v>169</v>
       </c>
       <c r="B7" t="n">
-        <v>1394.0</v>
+        <v>1404.0</v>
       </c>
       <c r="C7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="E7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="F7" t="s">
         <v>94</v>
       </c>
       <c r="G7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="I7" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="J7" t="n">
-        <v>10.1</v>
+        <v>10.4</v>
       </c>
       <c r="K7" t="n">
         <v>2.0</v>
@@ -4221,16 +4230,16 @@
         <v>0.0</v>
       </c>
       <c r="W7" t="n">
-        <v>43.0</v>
+        <v>44.0</v>
       </c>
       <c r="X7" t="n">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="Y7" t="n">
         <v>12.0</v>
       </c>
       <c r="Z7" t="n">
-        <v>62.5</v>
+        <v>63.6</v>
       </c>
     </row>
     <row r="8">
@@ -4238,31 +4247,31 @@
         <v>170</v>
       </c>
       <c r="B8" t="n">
-        <v>2132.0</v>
+        <v>2147.0</v>
       </c>
       <c r="C8" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D8" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="E8" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F8" t="s">
         <v>94</v>
       </c>
       <c r="G8" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H8" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="I8" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="J8" t="n">
-        <v>10.4</v>
+        <v>11.4</v>
       </c>
       <c r="K8" t="n">
         <v>2.0</v>
@@ -4289,28 +4298,28 @@
         <v>22.0</v>
       </c>
       <c r="S8" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="X8" t="n">
         <v>10.0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>63.0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>9.0</v>
       </c>
       <c r="Y8" t="n">
         <v>5.0</v>
       </c>
       <c r="Z8" t="n">
-        <v>64.3</v>
+        <v>66.7</v>
       </c>
     </row>
     <row r="9">
@@ -4321,28 +4330,28 @@
         <v>8.0</v>
       </c>
       <c r="C9" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D9" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E9" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="F9" t="s">
         <v>97</v>
       </c>
       <c r="G9" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H9" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="I9" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="J9" t="n">
-        <v>8.1</v>
+        <v>9.1</v>
       </c>
       <c r="K9" t="n">
         <v>2.0</v>
@@ -4354,43 +4363,43 @@
         <v>0.0</v>
       </c>
       <c r="N9" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="O9" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="X9" t="n">
         <v>10.0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>24.0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W9" t="n">
-        <v>39.0</v>
-      </c>
-      <c r="X9" t="n">
-        <v>8.0</v>
       </c>
       <c r="Y9" t="n">
         <v>6.0</v>
       </c>
       <c r="Z9" t="n">
-        <v>57.1</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="10">
@@ -4398,31 +4407,31 @@
         <v>171</v>
       </c>
       <c r="B10" t="n">
-        <v>297.0</v>
+        <v>298.0</v>
       </c>
       <c r="C10" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D10" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E10" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="F10" t="s">
         <v>97</v>
       </c>
       <c r="G10" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H10" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="I10" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="J10" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="K10" t="n">
         <v>2.0</v>
@@ -4434,10 +4443,10 @@
         <v>0.0</v>
       </c>
       <c r="N10" t="n">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="O10" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="P10" t="n">
         <v>0.0</v>
@@ -4449,7 +4458,7 @@
         <v>11.0</v>
       </c>
       <c r="S10" t="n">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="T10" t="n">
         <v>0.0</v>
@@ -4461,7 +4470,7 @@
         <v>0.0</v>
       </c>
       <c r="W10" t="n">
-        <v>31.0</v>
+        <v>35.0</v>
       </c>
       <c r="X10" t="n">
         <v>10.0</v>
@@ -4478,31 +4487,31 @@
         <v>172</v>
       </c>
       <c r="B11" t="n">
-        <v>917.0</v>
+        <v>403.0</v>
       </c>
       <c r="C11" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D11" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E11" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="F11" t="s">
         <v>97</v>
       </c>
       <c r="G11" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H11" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="I11" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="J11" t="n">
-        <v>4.1</v>
+        <v>12.0</v>
       </c>
       <c r="K11" t="n">
         <v>2.0</v>
@@ -4514,22 +4523,22 @@
         <v>0.0</v>
       </c>
       <c r="N11" t="n">
-        <v>2.0</v>
+        <v>12.0</v>
       </c>
       <c r="O11" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="P11" t="n">
         <v>0.0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="R11" t="n">
-        <v>1.0</v>
+        <v>11.0</v>
       </c>
       <c r="S11" t="n">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
       <c r="T11" t="n">
         <v>0.0</v>
@@ -4541,16 +4550,16 @@
         <v>0.0</v>
       </c>
       <c r="W11" t="n">
-        <v>7.0</v>
+        <v>31.0</v>
       </c>
       <c r="X11" t="n">
-        <v>8.0</v>
+        <v>25.0</v>
       </c>
       <c r="Y11" t="n">
-        <v>5.0</v>
+        <v>9.0</v>
       </c>
       <c r="Z11" t="n">
-        <v>61.5</v>
+        <v>73.5</v>
       </c>
     </row>
     <row r="12">
@@ -4558,31 +4567,31 @@
         <v>173</v>
       </c>
       <c r="B12" t="n">
-        <v>919.0</v>
+        <v>922.0</v>
       </c>
       <c r="C12" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D12" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E12" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F12" t="s">
         <v>97</v>
       </c>
       <c r="G12" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H12" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="I12" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="J12" t="n">
-        <v>12.0</v>
+        <v>4.1</v>
       </c>
       <c r="K12" t="n">
         <v>2.0</v>
@@ -4594,7 +4603,7 @@
         <v>0.0</v>
       </c>
       <c r="N12" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="O12" t="n">
         <v>0.0</v>
@@ -4606,10 +4615,10 @@
         <v>0.0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="S12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T12" t="n">
         <v>0.0</v>
@@ -4621,16 +4630,16 @@
         <v>0.0</v>
       </c>
       <c r="W12" t="n">
-        <v>9.0</v>
+        <v>7.0</v>
       </c>
       <c r="X12" t="n">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="Y12" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.0</v>
+        <v>61.5</v>
       </c>
     </row>
     <row r="13">
@@ -4638,34 +4647,34 @@
         <v>174</v>
       </c>
       <c r="B13" t="n">
-        <v>229.0</v>
+        <v>924.0</v>
       </c>
       <c r="C13" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D13" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E13" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="F13" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G13" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H13" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="I13" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="J13" t="n">
-        <v>6.9</v>
+        <v>13.0</v>
       </c>
       <c r="K13" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="L13" t="n">
         <v>0.0</v>
@@ -4674,43 +4683,43 @@
         <v>0.0</v>
       </c>
       <c r="N13" t="n">
-        <v>8.0</v>
+        <v>0.0</v>
       </c>
       <c r="O13" t="n">
-        <v>8.0</v>
+        <v>0.0</v>
       </c>
       <c r="P13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q13" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="R13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W13" t="n">
         <v>10.0</v>
       </c>
-      <c r="S13" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="T13" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U13" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V13" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W13" t="n">
-        <v>28.0</v>
-      </c>
       <c r="X13" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y13" t="n">
-        <v>9.0</v>
+        <v>1.0</v>
       </c>
       <c r="Z13" t="n">
-        <v>30.8</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="14">
@@ -4718,13 +4727,13 @@
         <v>175</v>
       </c>
       <c r="B14" t="n">
-        <v>385.0</v>
+        <v>230.0</v>
       </c>
       <c r="C14" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D14" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="E14" t="s">
         <v>265</v>
@@ -4733,16 +4742,16 @@
         <v>94</v>
       </c>
       <c r="G14" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H14" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="I14" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="J14" t="n">
-        <v>6.8</v>
+        <v>7.7</v>
       </c>
       <c r="K14" t="n">
         <v>1.0</v>
@@ -4754,22 +4763,22 @@
         <v>0.0</v>
       </c>
       <c r="N14" t="n">
-        <v>3.0</v>
+        <v>9.0</v>
       </c>
       <c r="O14" t="n">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="P14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q14" t="n">
-        <v>14.0</v>
+        <v>5.0</v>
       </c>
       <c r="R14" t="n">
         <v>10.0</v>
       </c>
       <c r="S14" t="n">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
       <c r="T14" t="n">
         <v>0.0</v>
@@ -4781,16 +4790,16 @@
         <v>0.0</v>
       </c>
       <c r="W14" t="n">
-        <v>21.0</v>
+        <v>31.0</v>
       </c>
       <c r="X14" t="n">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="Y14" t="n">
-        <v>5.0</v>
+        <v>9.0</v>
       </c>
       <c r="Z14" t="n">
-        <v>58.3</v>
+        <v>30.8</v>
       </c>
     </row>
     <row r="15">
@@ -4798,31 +4807,31 @@
         <v>176</v>
       </c>
       <c r="B15" t="n">
-        <v>670.0</v>
+        <v>386.0</v>
       </c>
       <c r="C15" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D15" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="E15" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="F15" t="s">
         <v>94</v>
       </c>
       <c r="G15" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H15" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="I15" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="J15" t="n">
-        <v>0.5</v>
+        <v>6.8</v>
       </c>
       <c r="K15" t="n">
         <v>1.0</v>
@@ -4834,25 +4843,25 @@
         <v>0.0</v>
       </c>
       <c r="N15" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="O15" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="P15" t="n">
         <v>0.0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.0</v>
+        <v>14.0</v>
       </c>
       <c r="R15" t="n">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
       <c r="S15" t="n">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="T15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="U15" t="n">
         <v>0.0</v>
@@ -4861,16 +4870,16 @@
         <v>0.0</v>
       </c>
       <c r="W15" t="n">
-        <v>2.0</v>
+        <v>21.0</v>
       </c>
       <c r="X15" t="n">
-        <v>1.0</v>
+        <v>7.0</v>
       </c>
       <c r="Y15" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="Z15" t="n">
-        <v>33.3</v>
+        <v>58.3</v>
       </c>
     </row>
     <row r="16">
@@ -4878,31 +4887,31 @@
         <v>177</v>
       </c>
       <c r="B16" t="n">
-        <v>867.0</v>
+        <v>674.0</v>
       </c>
       <c r="C16" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D16" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="E16" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F16" t="s">
         <v>94</v>
       </c>
       <c r="G16" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H16" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="I16" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="J16" t="n">
-        <v>2.8</v>
+        <v>0.7</v>
       </c>
       <c r="K16" t="n">
         <v>1.0</v>
@@ -4914,43 +4923,43 @@
         <v>0.0</v>
       </c>
       <c r="N16" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="O16" t="n">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
       <c r="P16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T16" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W16" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="X16" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Y16" t="n">
         <v>2.0</v>
       </c>
-      <c r="Q16" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="S16" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="T16" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U16" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V16" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W16" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="X16" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>4.0</v>
-      </c>
       <c r="Z16" t="n">
-        <v>20.0</v>
+        <v>33.3</v>
       </c>
     </row>
     <row r="17">
@@ -4958,31 +4967,31 @@
         <v>178</v>
       </c>
       <c r="B17" t="n">
-        <v>1351.0</v>
+        <v>872.0</v>
       </c>
       <c r="C17" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D17" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E17" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="F17" t="s">
         <v>94</v>
       </c>
       <c r="G17" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H17" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="I17" t="s">
-        <v>313</v>
+        <v>324</v>
       </c>
       <c r="J17" t="n">
-        <v>9.4</v>
+        <v>3.0</v>
       </c>
       <c r="K17" t="n">
         <v>1.0</v>
@@ -4994,22 +5003,22 @@
         <v>0.0</v>
       </c>
       <c r="N17" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="O17" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="P17" t="n">
-        <v>17.0</v>
+        <v>2.0</v>
       </c>
       <c r="Q17" t="n">
         <v>7.0</v>
       </c>
       <c r="R17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="S17" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="T17" t="n">
         <v>0.0</v>
@@ -5021,16 +5030,16 @@
         <v>0.0</v>
       </c>
       <c r="W17" t="n">
-        <v>16.0</v>
+        <v>12.0</v>
       </c>
       <c r="X17" t="n">
         <v>1.0</v>
       </c>
       <c r="Y17" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="Z17" t="n">
-        <v>33.3</v>
+        <v>16.7</v>
       </c>
     </row>
     <row r="18">
@@ -5038,58 +5047,58 @@
         <v>179</v>
       </c>
       <c r="B18" t="n">
-        <v>1376.0</v>
+        <v>1359.0</v>
       </c>
       <c r="C18" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D18" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E18" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F18" t="s">
         <v>94</v>
       </c>
       <c r="G18" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H18" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="I18" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="J18" t="n">
-        <v>7.4</v>
+        <v>10.4</v>
       </c>
       <c r="K18" t="n">
         <v>1.0</v>
       </c>
       <c r="L18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="M18" t="n">
         <v>0.0</v>
       </c>
       <c r="N18" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="O18" t="n">
-        <v>5.0</v>
+        <v>9.0</v>
       </c>
       <c r="P18" t="n">
-        <v>0.0</v>
+        <v>18.0</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.0</v>
+        <v>7.0</v>
       </c>
       <c r="R18" t="n">
-        <v>8.0</v>
+        <v>0.0</v>
       </c>
       <c r="S18" t="n">
-        <v>12.0</v>
+        <v>1.0</v>
       </c>
       <c r="T18" t="n">
         <v>0.0</v>
@@ -5101,16 +5110,16 @@
         <v>0.0</v>
       </c>
       <c r="W18" t="n">
-        <v>23.0</v>
+        <v>16.0</v>
       </c>
       <c r="X18" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="Y18" t="n">
         <v>2.0</v>
       </c>
       <c r="Z18" t="n">
-        <v>50.0</v>
+        <v>33.3</v>
       </c>
     </row>
     <row r="19">
@@ -5118,43 +5127,43 @@
         <v>180</v>
       </c>
       <c r="B19" t="n">
-        <v>2145.0</v>
+        <v>1385.0</v>
       </c>
       <c r="C19" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D19" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="E19" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="F19" t="s">
         <v>94</v>
       </c>
       <c r="G19" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H19" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="I19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="J19" t="n">
-        <v>4.5</v>
+        <v>7.4</v>
       </c>
       <c r="K19" t="n">
         <v>1.0</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="M19" t="n">
         <v>0.0</v>
       </c>
       <c r="N19" t="n">
-        <v>8.0</v>
+        <v>5.0</v>
       </c>
       <c r="O19" t="n">
         <v>5.0</v>
@@ -5163,13 +5172,13 @@
         <v>0.0</v>
       </c>
       <c r="Q19" t="n">
-        <v>14.0</v>
+        <v>1.0</v>
       </c>
       <c r="R19" t="n">
-        <v>2.0</v>
+        <v>8.0</v>
       </c>
       <c r="S19" t="n">
-        <v>7.0</v>
+        <v>12.0</v>
       </c>
       <c r="T19" t="n">
         <v>0.0</v>
@@ -5181,16 +5190,16 @@
         <v>0.0</v>
       </c>
       <c r="W19" t="n">
-        <v>15.0</v>
+        <v>23.0</v>
       </c>
       <c r="X19" t="n">
         <v>2.0</v>
       </c>
       <c r="Y19" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="Z19" t="n">
-        <v>28.6</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="20">
@@ -5198,31 +5207,31 @@
         <v>181</v>
       </c>
       <c r="B20" t="n">
-        <v>118.0</v>
+        <v>2160.0</v>
       </c>
       <c r="C20" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D20" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E20" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="F20" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G20" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H20" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="I20" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="J20" t="n">
-        <v>10.8</v>
+        <v>5.0</v>
       </c>
       <c r="K20" t="n">
         <v>1.0</v>
@@ -5234,22 +5243,22 @@
         <v>0.0</v>
       </c>
       <c r="N20" t="n">
-        <v>16.0</v>
+        <v>8.0</v>
       </c>
       <c r="O20" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="P20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="R20" t="n">
         <v>3.0</v>
       </c>
-      <c r="Q20" t="n">
-        <v>51.0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>4.0</v>
-      </c>
       <c r="S20" t="n">
-        <v>13.0</v>
+        <v>9.0</v>
       </c>
       <c r="T20" t="n">
         <v>0.0</v>
@@ -5261,16 +5270,16 @@
         <v>0.0</v>
       </c>
       <c r="W20" t="n">
-        <v>43.0</v>
+        <v>17.0</v>
       </c>
       <c r="X20" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="Y20" t="n">
         <v>5.0</v>
       </c>
       <c r="Z20" t="n">
-        <v>54.5</v>
+        <v>28.6</v>
       </c>
     </row>
     <row r="21">
@@ -5278,31 +5287,31 @@
         <v>182</v>
       </c>
       <c r="B21" t="n">
-        <v>319.0</v>
+        <v>118.0</v>
       </c>
       <c r="C21" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D21" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E21" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="F21" t="s">
         <v>97</v>
       </c>
       <c r="G21" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H21" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="I21" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="J21" t="n">
-        <v>9.5</v>
+        <v>11.8</v>
       </c>
       <c r="K21" t="n">
         <v>1.0</v>
@@ -5314,43 +5323,43 @@
         <v>0.0</v>
       </c>
       <c r="N21" t="n">
-        <v>13.0</v>
+        <v>18.0</v>
       </c>
       <c r="O21" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="P21" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>53.0</v>
+      </c>
+      <c r="R21" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="S21" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W21" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="X21" t="n">
         <v>6.0</v>
       </c>
-      <c r="Q21" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="R21" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="S21" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="T21" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="U21" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V21" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W21" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="X21" t="n">
-        <v>50.0</v>
-      </c>
       <c r="Y21" t="n">
-        <v>41.0</v>
+        <v>5.0</v>
       </c>
       <c r="Z21" t="n">
-        <v>54.9</v>
+        <v>54.5</v>
       </c>
     </row>
     <row r="22">
@@ -5358,31 +5367,31 @@
         <v>183</v>
       </c>
       <c r="B22" t="n">
-        <v>402.0</v>
+        <v>320.0</v>
       </c>
       <c r="C22" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D22" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="E22" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F22" t="s">
         <v>97</v>
       </c>
       <c r="G22" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H22" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="I22" t="s">
-        <v>315</v>
+        <v>326</v>
       </c>
       <c r="J22" t="n">
-        <v>11.0</v>
+        <v>10.3</v>
       </c>
       <c r="K22" t="n">
         <v>1.0</v>
@@ -5394,25 +5403,25 @@
         <v>0.0</v>
       </c>
       <c r="N22" t="n">
-        <v>10.0</v>
+        <v>14.0</v>
       </c>
       <c r="O22" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="Q22" t="n">
         <v>3.0</v>
       </c>
-      <c r="P22" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>1.0</v>
-      </c>
       <c r="R22" t="n">
-        <v>10.0</v>
+        <v>1.0</v>
       </c>
       <c r="S22" t="n">
-        <v>9.0</v>
+        <v>2.0</v>
       </c>
       <c r="T22" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="U22" t="n">
         <v>0.0</v>
@@ -5421,16 +5430,16 @@
         <v>0.0</v>
       </c>
       <c r="W22" t="n">
-        <v>26.0</v>
+        <v>18.0</v>
       </c>
       <c r="X22" t="n">
-        <v>25.0</v>
+        <v>51.0</v>
       </c>
       <c r="Y22" t="n">
-        <v>9.0</v>
+        <v>43.0</v>
       </c>
       <c r="Z22" t="n">
-        <v>73.5</v>
+        <v>54.3</v>
       </c>
     </row>
     <row r="23">
@@ -5438,28 +5447,28 @@
         <v>184</v>
       </c>
       <c r="B23" t="n">
-        <v>496.0</v>
+        <v>497.0</v>
       </c>
       <c r="C23" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D23" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E23" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="F23" t="s">
         <v>97</v>
       </c>
       <c r="G23" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H23" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="I23" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="J23" t="n">
         <v>4.2</v>
@@ -5518,31 +5527,31 @@
         <v>185</v>
       </c>
       <c r="B24" t="n">
-        <v>764.0</v>
+        <v>769.0</v>
       </c>
       <c r="C24" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D24" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E24" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F24" t="s">
         <v>97</v>
       </c>
       <c r="G24" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H24" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="I24" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="J24" t="n">
-        <v>6.8</v>
+        <v>7.0</v>
       </c>
       <c r="K24" t="n">
         <v>1.0</v>
@@ -5563,34 +5572,34 @@
         <v>4.0</v>
       </c>
       <c r="Q24" t="n">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="R24" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="S24" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W24" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="X24" t="n">
         <v>7.0</v>
       </c>
-      <c r="S24" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="T24" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U24" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V24" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W24" t="n">
-        <v>34.0</v>
-      </c>
-      <c r="X24" t="n">
-        <v>6.0</v>
-      </c>
       <c r="Y24" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="Z24" t="n">
-        <v>37.5</v>
+        <v>38.9</v>
       </c>
     </row>
     <row r="25">
@@ -5598,31 +5607,31 @@
         <v>186</v>
       </c>
       <c r="B25" t="n">
-        <v>810.0</v>
+        <v>815.0</v>
       </c>
       <c r="C25" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D25" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E25" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="F25" t="s">
         <v>97</v>
       </c>
       <c r="G25" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H25" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="I25" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="J25" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="K25" t="n">
         <v>1.0</v>
@@ -5649,7 +5658,7 @@
         <v>5.0</v>
       </c>
       <c r="S25" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="T25" t="n">
         <v>0.0</v>
@@ -5661,7 +5670,7 @@
         <v>1.0</v>
       </c>
       <c r="W25" t="n">
-        <v>27.0</v>
+        <v>30.0</v>
       </c>
       <c r="X25" t="n">
         <v>4.0</v>
@@ -5678,28 +5687,28 @@
         <v>187</v>
       </c>
       <c r="B26" t="n">
-        <v>956.0</v>
+        <v>961.0</v>
       </c>
       <c r="C26" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D26" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E26" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F26" t="s">
         <v>97</v>
       </c>
       <c r="G26" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H26" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="I26" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="J26" t="n">
         <v>4.5</v>
@@ -5758,31 +5767,31 @@
         <v>188</v>
       </c>
       <c r="B27" t="n">
-        <v>1589.0</v>
+        <v>1600.0</v>
       </c>
       <c r="C27" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D27" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E27" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F27" t="s">
         <v>97</v>
       </c>
       <c r="G27" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H27" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="I27" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="J27" t="n">
-        <v>10.7</v>
+        <v>11.5</v>
       </c>
       <c r="K27" t="n">
         <v>1.0</v>
@@ -5794,10 +5803,10 @@
         <v>0.0</v>
       </c>
       <c r="N27" t="n">
-        <v>9.0</v>
+        <v>11.0</v>
       </c>
       <c r="O27" t="n">
-        <v>17.0</v>
+        <v>19.0</v>
       </c>
       <c r="P27" t="n">
         <v>2.0</v>
@@ -5806,7 +5815,7 @@
         <v>5.0</v>
       </c>
       <c r="R27" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="S27" t="n">
         <v>8.0</v>
@@ -5821,7 +5830,7 @@
         <v>0.0</v>
       </c>
       <c r="W27" t="n">
-        <v>57.0</v>
+        <v>60.0</v>
       </c>
       <c r="X27" t="n">
         <v>2.0</v>
@@ -5838,31 +5847,31 @@
         <v>189</v>
       </c>
       <c r="B28" t="n">
-        <v>1653.0</v>
+        <v>1664.0</v>
       </c>
       <c r="C28" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D28" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E28" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F28" t="s">
         <v>97</v>
       </c>
       <c r="G28" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H28" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="I28" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="J28" t="n">
-        <v>3.7</v>
+        <v>4.3</v>
       </c>
       <c r="K28" t="n">
         <v>1.0</v>
@@ -5874,7 +5883,7 @@
         <v>0.0</v>
       </c>
       <c r="N28" t="n">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="O28" t="n">
         <v>4.0</v>
@@ -5883,7 +5892,7 @@
         <v>0.0</v>
       </c>
       <c r="Q28" t="n">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="R28" t="n">
         <v>3.0</v>
@@ -5901,7 +5910,7 @@
         <v>0.0</v>
       </c>
       <c r="W28" t="n">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="X28" t="n">
         <v>4.0</v>
@@ -5918,31 +5927,31 @@
         <v>190</v>
       </c>
       <c r="B29" t="n">
-        <v>355.0</v>
+        <v>131.0</v>
       </c>
       <c r="C29" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D29" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="E29" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="F29" t="s">
         <v>94</v>
       </c>
       <c r="G29" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H29" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="I29" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="J29" t="n">
-        <v>2.3</v>
+        <v>0.7</v>
       </c>
       <c r="K29" t="n">
         <v>0.0</v>
@@ -5954,43 +5963,43 @@
         <v>0.0</v>
       </c>
       <c r="N29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W29" t="n">
         <v>3.0</v>
       </c>
-      <c r="O29" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W29" t="n">
-        <v>17.0</v>
-      </c>
       <c r="X29" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y29" t="n">
         <v>1.0</v>
       </c>
       <c r="Z29" t="n">
-        <v>66.7</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="30">
@@ -5998,31 +6007,31 @@
         <v>191</v>
       </c>
       <c r="B30" t="n">
-        <v>404.0</v>
+        <v>356.0</v>
       </c>
       <c r="C30" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D30" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="E30" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F30" t="s">
         <v>94</v>
       </c>
       <c r="G30" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H30" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="I30" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="J30" t="n">
-        <v>0.9</v>
+        <v>3.3</v>
       </c>
       <c r="K30" t="n">
         <v>0.0</v>
@@ -6034,43 +6043,43 @@
         <v>0.0</v>
       </c>
       <c r="N30" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="O30" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R30" t="n">
         <v>4.0</v>
       </c>
-      <c r="P30" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="R30" t="n">
-        <v>0.0</v>
-      </c>
       <c r="S30" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W30" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="X30" t="n">
         <v>3.0</v>
       </c>
-      <c r="T30" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U30" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V30" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W30" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="X30" t="n">
-        <v>0.0</v>
-      </c>
       <c r="Y30" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Z30" t="e">
-        <v>#N/A</v>
+        <v>1.0</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>75.0</v>
       </c>
     </row>
     <row r="31">
@@ -6078,31 +6087,31 @@
         <v>192</v>
       </c>
       <c r="B31" t="n">
-        <v>489.0</v>
+        <v>405.0</v>
       </c>
       <c r="C31" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D31" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="E31" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F31" t="s">
         <v>94</v>
       </c>
       <c r="G31" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H31" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="I31" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="J31" t="n">
-        <v>9.0</v>
+        <v>0.9</v>
       </c>
       <c r="K31" t="n">
         <v>0.0</v>
@@ -6114,22 +6123,22 @@
         <v>0.0</v>
       </c>
       <c r="N31" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="O31" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="P31" t="n">
         <v>0.0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="R31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="S31" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="T31" t="n">
         <v>0.0</v>
@@ -6138,19 +6147,19 @@
         <v>0.0</v>
       </c>
       <c r="V31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="W31" t="n">
-        <v>20.0</v>
+        <v>5.0</v>
       </c>
       <c r="X31" t="n">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y31" t="n">
         <v>0.0</v>
       </c>
-      <c r="Z31" t="n">
-        <v>100.0</v>
+      <c r="Z31" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="32">
@@ -6158,31 +6167,31 @@
         <v>193</v>
       </c>
       <c r="B32" t="n">
-        <v>569.0</v>
+        <v>490.0</v>
       </c>
       <c r="C32" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D32" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E32" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="F32" t="s">
         <v>94</v>
       </c>
       <c r="G32" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H32" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="I32" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="J32" t="n">
-        <v>1.5</v>
+        <v>9.0</v>
       </c>
       <c r="K32" t="n">
         <v>0.0</v>
@@ -6194,22 +6203,22 @@
         <v>0.0</v>
       </c>
       <c r="N32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="O32" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="P32" t="n">
         <v>0.0</v>
       </c>
       <c r="Q32" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="R32" t="n">
         <v>1.0</v>
       </c>
       <c r="S32" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="T32" t="n">
         <v>0.0</v>
@@ -6218,19 +6227,19 @@
         <v>0.0</v>
       </c>
       <c r="V32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="W32" t="n">
-        <v>7.0</v>
+        <v>20.0</v>
       </c>
       <c r="X32" t="n">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="Y32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z32" t="n">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="33">
@@ -6238,31 +6247,31 @@
         <v>194</v>
       </c>
       <c r="B33" t="n">
-        <v>762.0</v>
+        <v>572.0</v>
       </c>
       <c r="C33" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D33" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="E33" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F33" t="s">
         <v>94</v>
       </c>
       <c r="G33" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H33" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="I33" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="J33" t="n">
-        <v>3.6</v>
+        <v>2.3</v>
       </c>
       <c r="K33" t="n">
         <v>0.0</v>
@@ -6274,43 +6283,43 @@
         <v>0.0</v>
       </c>
       <c r="N33" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="O33" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="P33" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q33" t="n">
-        <v>12.0</v>
+        <v>4.0</v>
       </c>
       <c r="R33" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S33" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="T33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W33" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="X33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y33" t="n">
         <v>3.0</v>
       </c>
-      <c r="S33" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="T33" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U33" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V33" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W33" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="X33" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Y33" t="n">
-        <v>2.0</v>
-      </c>
       <c r="Z33" t="n">
-        <v>33.3</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="34">
@@ -6318,79 +6327,79 @@
         <v>195</v>
       </c>
       <c r="B34" t="n">
-        <v>1233.0</v>
+        <v>767.0</v>
       </c>
       <c r="C34" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D34" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="E34" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F34" t="s">
         <v>94</v>
       </c>
       <c r="G34" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H34" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="I34" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="J34" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W34" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="X34" t="n">
         <v>2.0</v>
       </c>
-      <c r="K34" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R34" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W34" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="X34" t="n">
-        <v>1.0</v>
-      </c>
       <c r="Y34" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="Z34" t="n">
-        <v>100.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="35">
@@ -6398,31 +6407,31 @@
         <v>196</v>
       </c>
       <c r="B35" t="n">
-        <v>1785.0</v>
+        <v>1241.0</v>
       </c>
       <c r="C35" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D35" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="E35" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="F35" t="s">
         <v>94</v>
       </c>
       <c r="G35" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H35" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="I35" t="s">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="J35" t="n">
-        <v>7.2</v>
+        <v>3.0</v>
       </c>
       <c r="K35" t="n">
         <v>0.0</v>
@@ -6434,22 +6443,22 @@
         <v>0.0</v>
       </c>
       <c r="N35" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="O35" t="n">
-        <v>10.0</v>
+        <v>1.0</v>
       </c>
       <c r="P35" t="n">
         <v>0.0</v>
       </c>
       <c r="Q35" t="n">
-        <v>18.0</v>
+        <v>0.0</v>
       </c>
       <c r="R35" t="n">
         <v>0.0</v>
       </c>
       <c r="S35" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="T35" t="n">
         <v>0.0</v>
@@ -6461,16 +6470,16 @@
         <v>0.0</v>
       </c>
       <c r="W35" t="n">
-        <v>17.0</v>
+        <v>8.0</v>
       </c>
       <c r="X35" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="Y35" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z35" t="n">
-        <v>44.4</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="36">
@@ -6478,31 +6487,31 @@
         <v>197</v>
       </c>
       <c r="B36" t="n">
-        <v>1811.0</v>
+        <v>1796.0</v>
       </c>
       <c r="C36" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D36" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="E36" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F36" t="s">
         <v>94</v>
       </c>
       <c r="G36" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H36" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="I36" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="J36" t="n">
-        <v>10.1</v>
+        <v>7.4</v>
       </c>
       <c r="K36" t="n">
         <v>0.0</v>
@@ -6514,19 +6523,19 @@
         <v>0.0</v>
       </c>
       <c r="N36" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="O36" t="n">
-        <v>7.0</v>
+        <v>10.0</v>
       </c>
       <c r="P36" t="n">
         <v>0.0</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.0</v>
+        <v>22.0</v>
       </c>
       <c r="R36" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="S36" t="n">
         <v>4.0</v>
@@ -6541,16 +6550,16 @@
         <v>0.0</v>
       </c>
       <c r="W36" t="n">
-        <v>34.0</v>
+        <v>17.0</v>
       </c>
       <c r="X36" t="n">
-        <v>14.0</v>
+        <v>4.0</v>
       </c>
       <c r="Y36" t="n">
-        <v>10.0</v>
+        <v>5.0</v>
       </c>
       <c r="Z36" t="n">
-        <v>58.3</v>
+        <v>44.4</v>
       </c>
     </row>
     <row r="37">
@@ -6558,13 +6567,13 @@
         <v>198</v>
       </c>
       <c r="B37" t="n">
-        <v>2048.0</v>
+        <v>1822.0</v>
       </c>
       <c r="C37" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D37" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="E37" t="s">
         <v>267</v>
@@ -6573,16 +6582,16 @@
         <v>94</v>
       </c>
       <c r="G37" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H37" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="I37" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="J37" t="n">
-        <v>9.4</v>
+        <v>11.1</v>
       </c>
       <c r="K37" t="n">
         <v>0.0</v>
@@ -6594,7 +6603,7 @@
         <v>0.0</v>
       </c>
       <c r="N37" t="n">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
       <c r="O37" t="n">
         <v>8.0</v>
@@ -6603,13 +6612,13 @@
         <v>0.0</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="R37" t="n">
-        <v>23.0</v>
+        <v>4.0</v>
       </c>
       <c r="S37" t="n">
-        <v>10.0</v>
+        <v>4.0</v>
       </c>
       <c r="T37" t="n">
         <v>0.0</v>
@@ -6621,16 +6630,16 @@
         <v>0.0</v>
       </c>
       <c r="W37" t="n">
-        <v>44.0</v>
+        <v>40.0</v>
       </c>
       <c r="X37" t="n">
-        <v>18.0</v>
+        <v>16.0</v>
       </c>
       <c r="Y37" t="n">
-        <v>8.0</v>
+        <v>11.0</v>
       </c>
       <c r="Z37" t="n">
-        <v>69.2</v>
+        <v>59.3</v>
       </c>
     </row>
     <row r="38">
@@ -6638,31 +6647,31 @@
         <v>199</v>
       </c>
       <c r="B38" t="n">
-        <v>2130.0</v>
+        <v>2062.0</v>
       </c>
       <c r="C38" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D38" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="E38" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="F38" t="s">
         <v>94</v>
       </c>
       <c r="G38" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H38" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="I38" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="J38" t="n">
-        <v>0.1</v>
+        <v>9.4</v>
       </c>
       <c r="K38" t="n">
         <v>0.0</v>
@@ -6674,22 +6683,22 @@
         <v>0.0</v>
       </c>
       <c r="N38" t="n">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="O38" t="n">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="P38" t="n">
         <v>0.0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="R38" t="n">
-        <v>0.0</v>
+        <v>23.0</v>
       </c>
       <c r="S38" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="T38" t="n">
         <v>0.0</v>
@@ -6701,16 +6710,16 @@
         <v>0.0</v>
       </c>
       <c r="W38" t="n">
-        <v>1.0</v>
+        <v>44.0</v>
       </c>
       <c r="X38" t="n">
-        <v>0.0</v>
+        <v>18.0</v>
       </c>
       <c r="Y38" t="n">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
       <c r="Z38" t="n">
-        <v>0.0</v>
+        <v>69.2</v>
       </c>
     </row>
     <row r="39">
@@ -6718,31 +6727,31 @@
         <v>200</v>
       </c>
       <c r="B39" t="n">
-        <v>123.0</v>
+        <v>2145.0</v>
       </c>
       <c r="C39" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D39" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E39" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="F39" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G39" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H39" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="I39" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="J39" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="K39" t="n">
         <v>0.0</v>
@@ -6757,19 +6766,19 @@
         <v>0.0</v>
       </c>
       <c r="O39" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="P39" t="n">
         <v>0.0</v>
       </c>
       <c r="Q39" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="R39" t="n">
         <v>0.0</v>
       </c>
       <c r="S39" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="T39" t="n">
         <v>0.0</v>
@@ -6781,16 +6790,16 @@
         <v>0.0</v>
       </c>
       <c r="W39" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="X39" t="n">
         <v>0.0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Z39" t="e">
-        <v>#N/A</v>
+        <v>1.0</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="40">
@@ -6798,31 +6807,31 @@
         <v>201</v>
       </c>
       <c r="B40" t="n">
-        <v>238.0</v>
+        <v>123.0</v>
       </c>
       <c r="C40" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D40" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E40" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F40" t="s">
         <v>97</v>
       </c>
       <c r="G40" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H40" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="I40" t="s">
         <v>325</v>
       </c>
       <c r="J40" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="K40" t="n">
         <v>0.0</v>
@@ -6834,23 +6843,23 @@
         <v>0.0</v>
       </c>
       <c r="N40" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="O40" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="P40" t="n">
         <v>0.0</v>
       </c>
       <c r="Q40" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S40" t="n">
         <v>2.0</v>
       </c>
-      <c r="R40" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0.0</v>
-      </c>
       <c r="T40" t="n">
         <v>0.0</v>
       </c>
@@ -6861,7 +6870,7 @@
         <v>0.0</v>
       </c>
       <c r="W40" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="X40" t="n">
         <v>0.0</v>
@@ -6878,31 +6887,31 @@
         <v>202</v>
       </c>
       <c r="B41" t="n">
-        <v>1315.0</v>
+        <v>239.0</v>
       </c>
       <c r="C41" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D41" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E41" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="F41" t="s">
         <v>97</v>
       </c>
       <c r="G41" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H41" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="I41" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="J41" t="n">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="K41" t="n">
         <v>0.0</v>
@@ -6914,19 +6923,19 @@
         <v>0.0</v>
       </c>
       <c r="N41" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="O41" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P41" t="n">
         <v>0.0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="R41" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="S41" t="n">
         <v>0.0</v>
@@ -6941,16 +6950,16 @@
         <v>0.0</v>
       </c>
       <c r="W41" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="X41" t="n">
         <v>0.0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Z41" t="e">
-        <v>#N/A</v>
+        <v>1.0</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="42">
@@ -6958,31 +6967,31 @@
         <v>203</v>
       </c>
       <c r="B42" t="n">
-        <v>1463.0</v>
+        <v>1323.0</v>
       </c>
       <c r="C42" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D42" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E42" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F42" t="s">
         <v>97</v>
       </c>
       <c r="G42" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H42" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="I42" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="J42" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="K42" t="n">
         <v>0.0</v>
@@ -6997,13 +7006,13 @@
         <v>0.0</v>
       </c>
       <c r="O42" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P42" t="n">
         <v>0.0</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="R42" t="n">
         <v>0.0</v>
@@ -7021,16 +7030,16 @@
         <v>0.0</v>
       </c>
       <c r="W42" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="X42" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y42" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Z42" t="n">
-        <v>50.0</v>
+        <v>0.0</v>
+      </c>
+      <c r="Z42" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="43">
@@ -7038,31 +7047,31 @@
         <v>204</v>
       </c>
       <c r="B43" t="n">
-        <v>1736.0</v>
+        <v>1473.0</v>
       </c>
       <c r="C43" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D43" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E43" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="F43" t="s">
         <v>97</v>
       </c>
       <c r="G43" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H43" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="I43" t="s">
-        <v>312</v>
+        <v>328</v>
       </c>
       <c r="J43" t="n">
-        <v>3.0</v>
+        <v>0.7</v>
       </c>
       <c r="K43" t="n">
         <v>0.0</v>
@@ -7074,43 +7083,43 @@
         <v>0.0</v>
       </c>
       <c r="N43" t="n">
-        <v>7.0</v>
+        <v>0.0</v>
       </c>
       <c r="O43" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="P43" t="n">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="R43" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="S43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W43" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="X43" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Y43" t="n">
         <v>2.0</v>
       </c>
-      <c r="T43" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U43" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V43" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W43" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="X43" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="Y43" t="n">
-        <v>6.0</v>
-      </c>
       <c r="Z43" t="n">
-        <v>53.8</v>
+        <v>33.3</v>
       </c>
     </row>
     <row r="44">
@@ -7118,78 +7127,158 @@
         <v>205</v>
       </c>
       <c r="B44" t="n">
-        <v>2164.0</v>
+        <v>1747.0</v>
       </c>
       <c r="C44" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D44" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E44" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F44" t="s">
         <v>97</v>
       </c>
       <c r="G44" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H44" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="I44" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="J44" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S44" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W44" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="X44" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>53.8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>206</v>
+      </c>
+      <c r="B45" t="n">
+        <v>2179.0</v>
+      </c>
+      <c r="C45" t="s">
+        <v>250</v>
+      </c>
+      <c r="D45" t="s">
+        <v>252</v>
+      </c>
+      <c r="E45" t="s">
+        <v>267</v>
+      </c>
+      <c r="F45" t="s">
+        <v>97</v>
+      </c>
+      <c r="G45" t="s">
+        <v>270</v>
+      </c>
+      <c r="H45" t="s">
+        <v>314</v>
+      </c>
+      <c r="I45" t="s">
+        <v>325</v>
+      </c>
+      <c r="J45" t="n">
         <v>1.3</v>
       </c>
-      <c r="K44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N44" t="n">
+      <c r="K45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N45" t="n">
         <v>2.0</v>
       </c>
-      <c r="O44" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="R44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W44" t="n">
+      <c r="O45" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="R45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W45" t="n">
         <v>5.0</v>
       </c>
-      <c r="X44" t="n">
+      <c r="X45" t="n">
         <v>2.0</v>
       </c>
-      <c r="Y44" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Z44" t="n">
+      <c r="Y45" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Z45" t="n">
         <v>66.7</v>
       </c>
     </row>
@@ -7233,224 +7322,224 @@
         <v>146</v>
       </c>
       <c r="J1" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="K1" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="L1" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="M1" t="s">
         <v>147</v>
       </c>
       <c r="N1" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="O1" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="P1" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="Q1" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="R1" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="S1" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="T1" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="U1" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="V1" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="W1" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="X1" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="Y1" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="Z1" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="AA1" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="AB1" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="AC1" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="AD1" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="AE1" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="AF1" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="AG1" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="AH1" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="B2" t="n">
-        <v>1351.0</v>
+        <v>1033.0</v>
       </c>
       <c r="C2" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="D2" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="E2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F2" t="s">
         <v>94</v>
       </c>
       <c r="G2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H2" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="I2" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="J2" t="n">
-        <v>10.0</v>
+        <v>12.0</v>
       </c>
       <c r="K2" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="L2" t="n">
-        <v>847.0</v>
+        <v>979.0</v>
       </c>
       <c r="M2" t="n">
-        <v>9.4</v>
+        <v>10.9</v>
       </c>
       <c r="N2" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="Q2" t="n">
         <v>6.0</v>
       </c>
-      <c r="O2" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>3.0</v>
-      </c>
       <c r="R2" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="S2" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="T2" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="U2" t="n">
         <v>0.0</v>
       </c>
       <c r="V2" t="n">
-        <v>7.7</v>
+        <v>5.5</v>
       </c>
       <c r="W2" t="n">
-        <v>5.4</v>
+        <v>4.1</v>
       </c>
       <c r="X2" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>74.0</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>118.0</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AH2" t="n">
         <v>0.5</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>39.0</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>42.0</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>113.0</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>0.82</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B3" t="n">
-        <v>319.0</v>
+        <v>1359.0</v>
       </c>
       <c r="C3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D3" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="E3" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G3" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I3" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="J3" t="n">
-        <v>12.0</v>
+        <v>11.0</v>
       </c>
       <c r="K3" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="L3" t="n">
-        <v>857.0</v>
+        <v>937.0</v>
       </c>
       <c r="M3" t="n">
-        <v>9.5</v>
+        <v>10.4</v>
       </c>
       <c r="N3" t="n">
         <v>6.0</v>
@@ -7477,188 +7566,188 @@
         <v>0.0</v>
       </c>
       <c r="V3" t="n">
-        <v>5.2</v>
+        <v>8.0</v>
       </c>
       <c r="W3" t="n">
-        <v>2.9</v>
+        <v>5.6</v>
       </c>
       <c r="X3" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="Y3" t="n">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>12.0</v>
+        <v>47.0</v>
       </c>
       <c r="AA3" t="n">
-        <v>12.0</v>
+        <v>47.0</v>
       </c>
       <c r="AB3" t="n">
-        <v>48.0</v>
+        <v>123.0</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.63</v>
+        <v>0.58</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.74</v>
+        <v>0.67</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.32</v>
+        <v>0.29</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.54</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="B4" t="n">
-        <v>1028.0</v>
+        <v>320.0</v>
       </c>
       <c r="C4" t="s">
-        <v>206</v>
+        <v>227</v>
       </c>
       <c r="D4" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="E4" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F4" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G4" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H4" t="s">
-        <v>269</v>
+        <v>291</v>
       </c>
       <c r="I4" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="J4" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="K4" t="n">
         <v>11.0</v>
       </c>
-      <c r="K4" t="n">
-        <v>10.0</v>
-      </c>
       <c r="L4" t="n">
-        <v>905.0</v>
+        <v>927.0</v>
       </c>
       <c r="M4" t="n">
-        <v>10.1</v>
+        <v>10.3</v>
       </c>
       <c r="N4" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="P4" t="n">
-        <v>9.0</v>
+        <v>7.0</v>
       </c>
       <c r="Q4" t="n">
         <v>3.0</v>
       </c>
       <c r="R4" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="S4" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="T4" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="U4" t="n">
         <v>0.0</v>
       </c>
       <c r="V4" t="n">
-        <v>3.4</v>
+        <v>5.2</v>
       </c>
       <c r="W4" t="n">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="X4" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="Y4" t="n">
         <v>3.6</v>
       </c>
-      <c r="Y4" t="n">
-        <v>5.7</v>
-      </c>
       <c r="Z4" t="n">
-        <v>63.0</v>
+        <v>12.0</v>
       </c>
       <c r="AA4" t="n">
-        <v>34.0</v>
+        <v>12.0</v>
       </c>
       <c r="AB4" t="n">
-        <v>107.0</v>
+        <v>48.0</v>
       </c>
       <c r="AC4" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="AH4" t="n">
         <v>0.5</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>0.34</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B5" t="n">
-        <v>1785.0</v>
+        <v>1796.0</v>
       </c>
       <c r="C5" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D5" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="E5" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F5" t="s">
         <v>94</v>
       </c>
       <c r="G5" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H5" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="I5" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="J5" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="K5" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="L5" t="n">
-        <v>645.0</v>
+        <v>664.0</v>
       </c>
       <c r="M5" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="N5" t="n">
         <v>3.0</v>
@@ -7685,43 +7774,43 @@
         <v>0.0</v>
       </c>
       <c r="V5" t="n">
-        <v>1.0</v>
+        <v>1.1</v>
       </c>
       <c r="W5" t="n">
-        <v>1.0</v>
+        <v>1.1</v>
       </c>
       <c r="X5" t="n">
         <v>0.7</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="Z5" t="n">
-        <v>28.0</v>
+        <v>31.0</v>
       </c>
       <c r="AA5" t="n">
-        <v>32.0</v>
+        <v>33.0</v>
       </c>
       <c r="AB5" t="n">
-        <v>78.0</v>
+        <v>82.0</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.42</v>
+        <v>0.41</v>
       </c>
       <c r="AD5" t="n">
         <v>0.14</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.56</v>
+        <v>0.54</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.42</v>
+        <v>0.41</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.56</v>
+        <v>0.54</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="6">
@@ -7729,40 +7818,40 @@
         <v>170</v>
       </c>
       <c r="B6" t="n">
-        <v>2132.0</v>
+        <v>2147.0</v>
       </c>
       <c r="C6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D6" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="E6" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F6" t="s">
         <v>94</v>
       </c>
       <c r="G6" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H6" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="I6" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="J6" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="K6" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>940.0</v>
+        <v>12.0</v>
+      </c>
+      <c r="L6" t="e">
+        <v>#N/A</v>
       </c>
       <c r="M6" t="n">
-        <v>10.4</v>
+        <v>11.4</v>
       </c>
       <c r="N6" t="n">
         <v>2.0</v>
@@ -7789,43 +7878,43 @@
         <v>0.0</v>
       </c>
       <c r="V6" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="W6" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="X6" t="n">
         <v>1.3</v>
       </c>
       <c r="Y6" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="Z6" t="n">
-        <v>19.0</v>
+        <v>21.0</v>
       </c>
       <c r="AA6" t="n">
-        <v>73.0</v>
+        <v>76.0</v>
       </c>
       <c r="AB6" t="n">
         <v>20.0</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.19</v>
+        <v>0.17</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.19</v>
+        <v>0.17</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.19</v>
+        <v>0.17</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="7">
@@ -7836,37 +7925,37 @@
         <v>8.0</v>
       </c>
       <c r="C7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="F7" t="s">
         <v>97</v>
       </c>
       <c r="G7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="I7" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="J7" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="K7" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="L7" t="n">
-        <v>730.0</v>
+        <v>820.0</v>
       </c>
       <c r="M7" t="n">
-        <v>8.1</v>
+        <v>9.1</v>
       </c>
       <c r="N7" t="n">
         <v>2.0</v>
@@ -7893,40 +7982,40 @@
         <v>0.0</v>
       </c>
       <c r="V7" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="W7" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="X7" t="n">
         <v>0.3</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="Z7" t="n">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="AA7" t="n">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
       <c r="AB7" t="n">
-        <v>15.0</v>
+        <v>18.0</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AD7" t="n">
         <v>0.0</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AH7" t="n">
         <v>0.03</v>
@@ -7934,43 +8023,43 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B8" t="n">
-        <v>2088.0</v>
+        <v>2103.0</v>
       </c>
       <c r="C8" t="s">
         <v>209</v>
       </c>
       <c r="D8" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E8" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F8" t="s">
         <v>97</v>
       </c>
       <c r="G8" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H8" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="I8" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="J8" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="K8" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="L8" t="e">
         <v>#N/A</v>
       </c>
       <c r="M8" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="N8" t="n">
         <v>2.0</v>
@@ -7991,7 +8080,7 @@
         <v>0.0</v>
       </c>
       <c r="T8" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="U8" t="n">
         <v>0.0</v>
@@ -8009,28 +8098,28 @@
         <v>1.1</v>
       </c>
       <c r="Z8" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="AA8" t="n">
-        <v>36.0</v>
+        <v>37.0</v>
       </c>
       <c r="AB8" t="n">
         <v>16.0</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="AD8" t="n">
         <v>0.0</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="AH8" t="n">
         <v>0.06</v>
@@ -8041,13 +8130,13 @@
         <v>175</v>
       </c>
       <c r="B9" t="n">
-        <v>385.0</v>
+        <v>230.0</v>
       </c>
       <c r="C9" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D9" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="E9" t="s">
         <v>265</v>
@@ -8056,34 +8145,34 @@
         <v>94</v>
       </c>
       <c r="G9" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H9" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="I9" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="J9" t="n">
         <v>8.0</v>
       </c>
       <c r="K9" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="L9" t="n">
-        <v>609.0</v>
+        <v>694.0</v>
       </c>
       <c r="M9" t="n">
-        <v>6.8</v>
+        <v>7.7</v>
       </c>
       <c r="N9" t="n">
         <v>1.0</v>
       </c>
       <c r="O9" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="P9" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="Q9" t="n">
         <v>1.0</v>
@@ -8101,197 +8190,197 @@
         <v>0.0</v>
       </c>
       <c r="V9" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="W9" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="X9" t="n">
-        <v>0.2</v>
+        <v>1.0</v>
       </c>
       <c r="Y9" t="n">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="Z9" t="n">
-        <v>13.0</v>
+        <v>23.0</v>
       </c>
       <c r="AA9" t="n">
-        <v>27.0</v>
+        <v>50.0</v>
       </c>
       <c r="AB9" t="n">
-        <v>48.0</v>
+        <v>38.0</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.0</v>
+        <v>0.26</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.15</v>
+        <v>0.39</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.15</v>
+        <v>0.39</v>
       </c>
       <c r="AH9" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
       <c r="B10" t="n">
-        <v>569.0</v>
+        <v>386.0</v>
       </c>
       <c r="C10" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
       <c r="D10" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="E10" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="F10" t="s">
         <v>94</v>
       </c>
       <c r="G10" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H10" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="I10" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="J10" t="n">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="K10" t="n">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
       <c r="L10" t="n">
-        <v>134.0</v>
+        <v>609.0</v>
       </c>
       <c r="M10" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="N10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="W10" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Y10" t="n">
         <v>1.5</v>
       </c>
-      <c r="N10" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="X10" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>0.6</v>
-      </c>
       <c r="Z10" t="n">
-        <v>9.0</v>
+        <v>13.0</v>
       </c>
       <c r="AA10" t="n">
-        <v>10.0</v>
+        <v>27.0</v>
       </c>
       <c r="AB10" t="n">
-        <v>18.0</v>
+        <v>48.0</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.67</v>
+        <v>0.15</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.67</v>
+        <v>0.0</v>
       </c>
       <c r="AE10" t="n">
-        <v>1.34</v>
+        <v>0.15</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.67</v>
+        <v>0.15</v>
       </c>
       <c r="AG10" t="n">
-        <v>1.34</v>
+        <v>0.15</v>
       </c>
       <c r="AH10" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="B11" t="n">
-        <v>670.0</v>
+        <v>572.0</v>
       </c>
       <c r="C11" t="s">
-        <v>219</v>
+        <v>238</v>
       </c>
       <c r="D11" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
       <c r="E11" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="F11" t="s">
         <v>94</v>
       </c>
       <c r="G11" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H11" t="s">
-        <v>282</v>
+        <v>302</v>
       </c>
       <c r="I11" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="J11" t="n">
         <v>7.0</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="L11" t="n">
-        <v>46.0</v>
+        <v>205.0</v>
       </c>
       <c r="M11" t="n">
-        <v>0.5</v>
+        <v>2.3</v>
       </c>
       <c r="N11" t="n">
         <v>1.0</v>
       </c>
       <c r="O11" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="P11" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="Q11" t="n">
         <v>1.0</v>
@@ -8303,99 +8392,99 @@
         <v>0.0</v>
       </c>
       <c r="T11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="U11" t="n">
         <v>0.0</v>
       </c>
       <c r="V11" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="W11" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="X11" t="n">
-        <v>0.0</v>
+        <v>0.9</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="Z11" t="n">
-        <v>4.0</v>
+        <v>9.0</v>
       </c>
       <c r="AA11" t="n">
-        <v>1.0</v>
+        <v>11.0</v>
       </c>
       <c r="AB11" t="n">
-        <v>8.0</v>
+        <v>22.0</v>
       </c>
       <c r="AC11" t="n">
-        <v>1.96</v>
+        <v>0.44</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.0</v>
+        <v>0.88</v>
       </c>
       <c r="AE11" t="n">
-        <v>1.96</v>
+        <v>1.32</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.96</v>
+        <v>0.44</v>
       </c>
       <c r="AG11" t="n">
-        <v>1.96</v>
+        <v>1.32</v>
       </c>
       <c r="AH11" t="n">
-        <v>1.25</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="B12" t="n">
-        <v>1394.0</v>
+        <v>674.0</v>
       </c>
       <c r="C12" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="D12" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="E12" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F12" t="s">
         <v>94</v>
       </c>
       <c r="G12" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H12" t="s">
-        <v>274</v>
+        <v>285</v>
       </c>
       <c r="I12" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="J12" t="n">
-        <v>11.0</v>
+        <v>8.0</v>
       </c>
       <c r="K12" t="n">
-        <v>10.0</v>
+        <v>0.0</v>
       </c>
       <c r="L12" t="n">
-        <v>909.0</v>
+        <v>62.0</v>
       </c>
       <c r="M12" t="n">
-        <v>10.1</v>
+        <v>0.7</v>
       </c>
       <c r="N12" t="n">
         <v>1.0</v>
       </c>
       <c r="O12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P12" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q12" t="n">
         <v>1.0</v>
@@ -8407,7 +8496,7 @@
         <v>0.0</v>
       </c>
       <c r="T12" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="U12" t="n">
         <v>0.0</v>
@@ -8419,78 +8508,78 @@
         <v>0.6</v>
       </c>
       <c r="X12" t="n">
-        <v>0.5</v>
+        <v>0.0</v>
       </c>
       <c r="Y12" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="Z12" t="n">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="AA12" t="n">
-        <v>46.0</v>
+        <v>2.0</v>
       </c>
       <c r="AB12" t="n">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.1</v>
+        <v>1.45</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.1</v>
+        <v>0.0</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.2</v>
+        <v>1.45</v>
       </c>
       <c r="AF12" t="n">
-        <v>0.1</v>
+        <v>1.45</v>
       </c>
       <c r="AG12" t="n">
-        <v>0.2</v>
+        <v>1.45</v>
       </c>
       <c r="AH12" t="n">
-        <v>0.06</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="B13" t="n">
-        <v>2145.0</v>
+        <v>1404.0</v>
       </c>
       <c r="C13" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="D13" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E13" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="F13" t="s">
         <v>94</v>
       </c>
       <c r="G13" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H13" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="I13" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="J13" t="n">
-        <v>9.0</v>
+        <v>12.0</v>
       </c>
       <c r="K13" t="n">
-        <v>4.0</v>
+        <v>11.0</v>
       </c>
       <c r="L13" t="n">
-        <v>401.0</v>
+        <v>938.0</v>
       </c>
       <c r="M13" t="n">
-        <v>4.5</v>
+        <v>10.4</v>
       </c>
       <c r="N13" t="n">
         <v>1.0</v>
@@ -8511,99 +8600,99 @@
         <v>0.0</v>
       </c>
       <c r="T13" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="U13" t="n">
         <v>0.0</v>
       </c>
       <c r="V13" t="n">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="W13" t="n">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="X13" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>1.0</v>
+        <v>1.1</v>
       </c>
       <c r="Z13" t="n">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="AA13" t="n">
-        <v>21.0</v>
+        <v>46.0</v>
       </c>
       <c r="AB13" t="n">
-        <v>33.0</v>
+        <v>1.0</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.22</v>
+        <v>0.1</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.22</v>
+        <v>0.1</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.45</v>
+        <v>0.19</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.22</v>
+        <v>0.1</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.45</v>
+        <v>0.19</v>
       </c>
       <c r="AH13" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="B14" t="n">
-        <v>297.0</v>
+        <v>2160.0</v>
       </c>
       <c r="C14" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="D14" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E14" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="F14" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G14" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H14" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="I14" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
       <c r="J14" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="K14" t="n">
-        <v>9.0</v>
+        <v>5.0</v>
       </c>
       <c r="L14" t="n">
-        <v>810.0</v>
+        <v>446.0</v>
       </c>
       <c r="M14" t="n">
-        <v>9.0</v>
+        <v>5.0</v>
       </c>
       <c r="N14" t="n">
         <v>1.0</v>
       </c>
       <c r="O14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P14" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="Q14" t="n">
         <v>1.0</v>
@@ -8615,46 +8704,46 @@
         <v>0.0</v>
       </c>
       <c r="T14" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="U14" t="n">
         <v>0.0</v>
       </c>
       <c r="V14" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AE14" t="n">
         <v>0.4</v>
       </c>
-      <c r="W14" t="n">
+      <c r="AF14" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AG14" t="n">
         <v>0.4</v>
-      </c>
-      <c r="X14" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>25.0</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>0.11</v>
       </c>
       <c r="AH14" t="n">
         <v>0.04</v>
@@ -8662,156 +8751,156 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="B15" t="n">
-        <v>764.0</v>
+        <v>298.0</v>
       </c>
       <c r="C15" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="D15" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="E15" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="F15" t="s">
         <v>97</v>
       </c>
       <c r="G15" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H15" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="I15" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="J15" t="n">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
       <c r="K15" t="n">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
       <c r="L15" t="n">
-        <v>608.0</v>
+        <v>900.0</v>
       </c>
       <c r="M15" t="n">
-        <v>6.8</v>
+        <v>10.0</v>
       </c>
       <c r="N15" t="n">
         <v>1.0</v>
       </c>
       <c r="O15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P15" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T15" t="n">
         <v>2.0</v>
       </c>
-      <c r="Q15" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="R15" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S15" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T15" t="n">
-        <v>1.0</v>
-      </c>
       <c r="U15" t="n">
         <v>0.0</v>
       </c>
       <c r="V15" t="n">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="W15" t="n">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="X15" t="n">
-        <v>0.5</v>
+        <v>0.0</v>
       </c>
       <c r="Y15" t="n">
-        <v>1.4</v>
+        <v>0.4</v>
       </c>
       <c r="Z15" t="n">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c r="AA15" t="n">
         <v>31.0</v>
       </c>
       <c r="AB15" t="n">
-        <v>41.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="AD15" t="n">
-        <v>0.15</v>
+        <v>0.0</v>
       </c>
       <c r="AE15" t="n">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="AF15" t="n">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="AG15" t="n">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="AH15" t="n">
-        <v>0.13</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B16" t="n">
-        <v>1589.0</v>
+        <v>769.0</v>
       </c>
       <c r="C16" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D16" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E16" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="F16" t="s">
         <v>97</v>
       </c>
       <c r="G16" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H16" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I16" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="J16" t="n">
         <v>12.0</v>
       </c>
       <c r="K16" t="n">
-        <v>12.0</v>
+        <v>8.0</v>
       </c>
       <c r="L16" t="n">
-        <v>962.0</v>
+        <v>627.0</v>
       </c>
       <c r="M16" t="n">
-        <v>10.7</v>
+        <v>7.0</v>
       </c>
       <c r="N16" t="n">
         <v>1.0</v>
       </c>
       <c r="O16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P16" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="Q16" t="n">
         <v>1.0</v>
@@ -8829,84 +8918,84 @@
         <v>0.0</v>
       </c>
       <c r="V16" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="W16" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="X16" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Y16" t="n">
         <v>1.4</v>
       </c>
-      <c r="Y16" t="n">
-        <v>2.9</v>
-      </c>
       <c r="Z16" t="n">
-        <v>14.0</v>
+        <v>6.0</v>
       </c>
       <c r="AA16" t="n">
-        <v>53.0</v>
+        <v>32.0</v>
       </c>
       <c r="AB16" t="n">
-        <v>38.0</v>
+        <v>42.0</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.09</v>
+        <v>0.14</v>
       </c>
       <c r="AD16" t="n">
-        <v>0.0</v>
+        <v>0.14</v>
       </c>
       <c r="AE16" t="n">
-        <v>0.09</v>
+        <v>0.29</v>
       </c>
       <c r="AF16" t="n">
-        <v>0.09</v>
+        <v>0.14</v>
       </c>
       <c r="AG16" t="n">
-        <v>0.09</v>
+        <v>0.29</v>
       </c>
       <c r="AH16" t="n">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="B17" t="n">
-        <v>1736.0</v>
+        <v>1600.0</v>
       </c>
       <c r="C17" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="D17" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E17" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="F17" t="s">
         <v>97</v>
       </c>
       <c r="G17" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H17" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
       <c r="I17" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="J17" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="K17" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>271.0</v>
+        <v>13.0</v>
+      </c>
+      <c r="L17" t="e">
+        <v>#N/A</v>
       </c>
       <c r="M17" t="n">
-        <v>3.0</v>
+        <v>11.5</v>
       </c>
       <c r="N17" t="n">
         <v>1.0</v>
@@ -8927,206 +9016,206 @@
         <v>0.0</v>
       </c>
       <c r="T17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="U17" t="n">
         <v>0.0</v>
       </c>
       <c r="V17" t="n">
-        <v>0.4</v>
+        <v>1.5</v>
       </c>
       <c r="W17" t="n">
-        <v>0.4</v>
+        <v>1.5</v>
       </c>
       <c r="X17" t="n">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.9</v>
+        <v>2.9</v>
       </c>
       <c r="Z17" t="n">
-        <v>5.0</v>
+        <v>18.0</v>
       </c>
       <c r="AA17" t="n">
-        <v>2.0</v>
+        <v>55.0</v>
       </c>
       <c r="AB17" t="n">
-        <v>19.0</v>
+        <v>40.0</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.33</v>
+        <v>0.09</v>
       </c>
       <c r="AD17" t="n">
         <v>0.0</v>
       </c>
       <c r="AE17" t="n">
-        <v>0.33</v>
+        <v>0.09</v>
       </c>
       <c r="AF17" t="n">
-        <v>0.33</v>
+        <v>0.09</v>
       </c>
       <c r="AG17" t="n">
-        <v>0.33</v>
+        <v>0.09</v>
       </c>
       <c r="AH17" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>168</v>
+        <v>205</v>
       </c>
       <c r="B18" t="n">
-        <v>2257.0</v>
+        <v>1747.0</v>
       </c>
       <c r="C18" t="s">
-        <v>210</v>
+        <v>249</v>
       </c>
       <c r="D18" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E18" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F18" t="s">
         <v>97</v>
       </c>
       <c r="G18" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H18" t="s">
-        <v>273</v>
+        <v>313</v>
       </c>
       <c r="I18" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J18" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="K18" t="n">
-        <v>10.0</v>
+        <v>2.0</v>
       </c>
       <c r="L18" t="n">
-        <v>817.0</v>
+        <v>303.0</v>
       </c>
       <c r="M18" t="n">
-        <v>9.1</v>
+        <v>3.4</v>
       </c>
       <c r="N18" t="n">
         <v>1.0</v>
       </c>
       <c r="O18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="X18" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="Z18" t="n">
         <v>5.0</v>
       </c>
-      <c r="P18" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="R18" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S18" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T18" t="n">
+      <c r="AA18" t="n">
         <v>3.0</v>
       </c>
-      <c r="U18" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V18" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W18" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="X18" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>43.0</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>23.0</v>
-      </c>
       <c r="AB18" t="n">
-        <v>70.0</v>
+        <v>21.0</v>
       </c>
       <c r="AC18" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AH18" t="n">
         <v>0.11</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>0.2</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B19" t="n">
-        <v>229.0</v>
+        <v>2272.0</v>
       </c>
       <c r="C19" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="D19" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E19" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="F19" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G19" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H19" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="I19" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="J19" t="n">
-        <v>7.0</v>
+        <v>13.0</v>
       </c>
       <c r="K19" t="n">
-        <v>7.0</v>
+        <v>11.0</v>
       </c>
       <c r="L19" t="n">
-        <v>620.0</v>
+        <v>898.0</v>
       </c>
       <c r="M19" t="n">
-        <v>6.9</v>
+        <v>10.0</v>
       </c>
       <c r="N19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="O19" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="P19" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="R19" t="n">
         <v>0.0</v>
@@ -9135,49 +9224,49 @@
         <v>0.0</v>
       </c>
       <c r="T19" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="U19" t="n">
         <v>0.0</v>
       </c>
       <c r="V19" t="n">
-        <v>0.9</v>
+        <v>1.8</v>
       </c>
       <c r="W19" t="n">
-        <v>0.9</v>
+        <v>1.8</v>
       </c>
       <c r="X19" t="n">
-        <v>0.9</v>
+        <v>1.9</v>
       </c>
       <c r="Y19" t="n">
-        <v>1.8</v>
+        <v>3.7</v>
       </c>
       <c r="Z19" t="n">
-        <v>19.0</v>
+        <v>48.0</v>
       </c>
       <c r="AA19" t="n">
-        <v>42.0</v>
+        <v>23.0</v>
       </c>
       <c r="AB19" t="n">
-        <v>32.0</v>
+        <v>76.0</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.0</v>
+        <v>0.1</v>
       </c>
       <c r="AD19" t="n">
-        <v>0.15</v>
+        <v>0.5</v>
       </c>
       <c r="AE19" t="n">
-        <v>0.15</v>
+        <v>0.6</v>
       </c>
       <c r="AF19" t="n">
-        <v>0.0</v>
+        <v>0.1</v>
       </c>
       <c r="AG19" t="n">
-        <v>0.15</v>
+        <v>0.6</v>
       </c>
       <c r="AH19" t="n">
-        <v>0.14</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="20">
@@ -9185,40 +9274,40 @@
         <v>190</v>
       </c>
       <c r="B20" t="n">
-        <v>355.0</v>
+        <v>131.0</v>
       </c>
       <c r="C20" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D20" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="E20" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="F20" t="s">
         <v>94</v>
       </c>
       <c r="G20" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H20" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="I20" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="J20" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="K20" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="L20" t="n">
-        <v>208.0</v>
+        <v>61.0</v>
       </c>
       <c r="M20" t="n">
-        <v>2.3</v>
+        <v>0.7</v>
       </c>
       <c r="N20" t="n">
         <v>0.0</v>
@@ -9245,43 +9334,43 @@
         <v>0.0</v>
       </c>
       <c r="V20" t="n">
-        <v>0.1</v>
+        <v>0.0</v>
       </c>
       <c r="W20" t="n">
-        <v>0.1</v>
+        <v>0.0</v>
       </c>
       <c r="X20" t="n">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="Z20" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="AA20" t="n">
-        <v>12.0</v>
+        <v>2.0</v>
       </c>
       <c r="AB20" t="n">
-        <v>7.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC20" t="n">
         <v>0.0</v>
       </c>
       <c r="AD20" t="n">
-        <v>0.43</v>
+        <v>1.48</v>
       </c>
       <c r="AE20" t="n">
-        <v>0.43</v>
+        <v>1.48</v>
       </c>
       <c r="AF20" t="n">
         <v>0.0</v>
       </c>
       <c r="AG20" t="n">
-        <v>0.43</v>
+        <v>1.48</v>
       </c>
       <c r="AH20" t="n">
-        <v>0.03</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="21">
@@ -9289,49 +9378,49 @@
         <v>191</v>
       </c>
       <c r="B21" t="n">
-        <v>404.0</v>
+        <v>356.0</v>
       </c>
       <c r="C21" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D21" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="E21" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F21" t="s">
         <v>94</v>
       </c>
       <c r="G21" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H21" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="I21" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="J21" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="K21" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="L21" t="n">
-        <v>79.0</v>
+        <v>298.0</v>
       </c>
       <c r="M21" t="n">
-        <v>0.9</v>
+        <v>3.3</v>
       </c>
       <c r="N21" t="n">
         <v>0.0</v>
       </c>
       <c r="O21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q21" t="n">
         <v>0.0</v>
@@ -9349,43 +9438,43 @@
         <v>0.0</v>
       </c>
       <c r="V21" t="n">
-        <v>0.0</v>
+        <v>0.1</v>
       </c>
       <c r="W21" t="n">
-        <v>0.0</v>
+        <v>0.1</v>
       </c>
       <c r="X21" t="n">
-        <v>0.0</v>
+        <v>0.1</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.0</v>
+        <v>0.2</v>
       </c>
       <c r="Z21" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="AA21" t="n">
-        <v>8.0</v>
+        <v>15.0</v>
       </c>
       <c r="AB21" t="n">
-        <v>1.0</v>
+        <v>9.0</v>
       </c>
       <c r="AC21" t="n">
         <v>0.0</v>
       </c>
       <c r="AD21" t="n">
-        <v>0.0</v>
+        <v>0.3</v>
       </c>
       <c r="AE21" t="n">
-        <v>0.0</v>
+        <v>0.3</v>
       </c>
       <c r="AF21" t="n">
         <v>0.0</v>
       </c>
       <c r="AG21" t="n">
-        <v>0.0</v>
+        <v>0.3</v>
       </c>
       <c r="AH21" t="n">
-        <v>0.0</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="22">
@@ -9393,40 +9482,40 @@
         <v>192</v>
       </c>
       <c r="B22" t="n">
-        <v>489.0</v>
+        <v>405.0</v>
       </c>
       <c r="C22" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D22" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="E22" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F22" t="s">
         <v>94</v>
       </c>
       <c r="G22" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H22" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="I22" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="J22" t="n">
-        <v>9.0</v>
+        <v>3.0</v>
       </c>
       <c r="K22" t="n">
-        <v>9.0</v>
+        <v>1.0</v>
       </c>
       <c r="L22" t="n">
-        <v>810.0</v>
+        <v>79.0</v>
       </c>
       <c r="M22" t="n">
-        <v>9.0</v>
+        <v>0.9</v>
       </c>
       <c r="N22" t="n">
         <v>0.0</v>
@@ -9465,13 +9554,13 @@
         <v>0.0</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="AB22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AC22" t="n">
         <v>0.0</v>
@@ -9494,43 +9583,43 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B23" t="n">
-        <v>762.0</v>
+        <v>490.0</v>
       </c>
       <c r="C23" t="s">
         <v>237</v>
       </c>
       <c r="D23" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="E23" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="F23" t="s">
         <v>94</v>
       </c>
       <c r="G23" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H23" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="I23" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="J23" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="K23" t="n">
-        <v>3.0</v>
+        <v>9.0</v>
       </c>
       <c r="L23" t="n">
-        <v>327.0</v>
+        <v>810.0</v>
       </c>
       <c r="M23" t="n">
-        <v>3.6</v>
+        <v>9.0</v>
       </c>
       <c r="N23" t="n">
         <v>0.0</v>
@@ -9557,25 +9646,25 @@
         <v>0.0</v>
       </c>
       <c r="V23" t="n">
-        <v>0.2</v>
+        <v>0.0</v>
       </c>
       <c r="W23" t="n">
-        <v>0.2</v>
+        <v>0.0</v>
       </c>
       <c r="X23" t="n">
-        <v>0.2</v>
+        <v>0.0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.4</v>
+        <v>0.0</v>
       </c>
       <c r="Z23" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA23" t="n">
-        <v>23.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB23" t="n">
-        <v>27.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC23" t="n">
         <v>0.0</v>
@@ -9593,93 +9682,93 @@
         <v>0.0</v>
       </c>
       <c r="AH23" t="n">
-        <v>0.06</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
       <c r="B24" t="n">
-        <v>867.0</v>
+        <v>767.0</v>
       </c>
       <c r="C24" t="s">
-        <v>220</v>
+        <v>239</v>
       </c>
       <c r="D24" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E24" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="F24" t="s">
         <v>94</v>
       </c>
       <c r="G24" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H24" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="I24" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="J24" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>417.0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="X24" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Z24" t="n">
         <v>7.0</v>
       </c>
-      <c r="K24" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>251.0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R24" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S24" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T24" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="U24" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V24" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="W24" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="X24" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>6.0</v>
-      </c>
       <c r="AA24" t="n">
-        <v>19.0</v>
+        <v>28.0</v>
       </c>
       <c r="AB24" t="n">
-        <v>26.0</v>
+        <v>29.0</v>
       </c>
       <c r="AC24" t="n">
         <v>0.0</v>
@@ -9697,93 +9786,93 @@
         <v>0.0</v>
       </c>
       <c r="AH24" t="n">
-        <v>0.35</v>
+        <v>0.07</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="B25" t="n">
-        <v>1233.0</v>
+        <v>872.0</v>
       </c>
       <c r="C25" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="D25" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E25" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F25" t="s">
         <v>94</v>
       </c>
       <c r="G25" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H25" t="s">
-        <v>301</v>
+        <v>286</v>
       </c>
       <c r="I25" t="s">
         <v>324</v>
       </c>
       <c r="J25" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>267.0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W25" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="X25" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Y25" t="n">
         <v>2.0</v>
       </c>
-      <c r="K25" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>180.0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W25" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="X25" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>0.0</v>
-      </c>
       <c r="Z25" t="n">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="AA25" t="n">
-        <v>0.0</v>
+        <v>19.0</v>
       </c>
       <c r="AB25" t="n">
-        <v>0.0</v>
+        <v>28.0</v>
       </c>
       <c r="AC25" t="n">
         <v>0.0</v>
@@ -9801,57 +9890,57 @@
         <v>0.0</v>
       </c>
       <c r="AH25" t="n">
-        <v>0.0</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="B26" t="n">
-        <v>1376.0</v>
+        <v>1241.0</v>
       </c>
       <c r="C26" t="s">
-        <v>222</v>
+        <v>240</v>
       </c>
       <c r="D26" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="E26" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="F26" t="s">
         <v>94</v>
       </c>
       <c r="G26" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H26" t="s">
-        <v>285</v>
+        <v>304</v>
       </c>
       <c r="I26" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="J26" t="n">
-        <v>9.0</v>
+        <v>3.0</v>
       </c>
       <c r="K26" t="n">
-        <v>8.0</v>
+        <v>3.0</v>
       </c>
       <c r="L26" t="n">
-        <v>664.0</v>
+        <v>270.0</v>
       </c>
       <c r="M26" t="n">
-        <v>7.4</v>
+        <v>3.0</v>
       </c>
       <c r="N26" t="n">
         <v>0.0</v>
       </c>
       <c r="O26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q26" t="n">
         <v>0.0</v>
@@ -9863,10 +9952,10 @@
         <v>0.0</v>
       </c>
       <c r="T26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="U26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="V26" t="n">
         <v>0.0</v>
@@ -9875,34 +9964,34 @@
         <v>0.0</v>
       </c>
       <c r="X26" t="n">
-        <v>0.0</v>
+        <v>0.9</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.0</v>
+        <v>0.9</v>
       </c>
       <c r="Z26" t="n">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA26" t="n">
-        <v>25.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB26" t="n">
-        <v>26.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC26" t="n">
         <v>0.0</v>
       </c>
       <c r="AD26" t="n">
-        <v>0.0</v>
+        <v>0.33</v>
       </c>
       <c r="AE26" t="n">
-        <v>0.0</v>
+        <v>0.33</v>
       </c>
       <c r="AF26" t="n">
         <v>0.0</v>
       </c>
       <c r="AG26" t="n">
-        <v>0.0</v>
+        <v>0.33</v>
       </c>
       <c r="AH26" t="n">
         <v>0.0</v>
@@ -9910,52 +9999,52 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="B27" t="n">
-        <v>1417.0</v>
+        <v>1385.0</v>
       </c>
       <c r="C27" t="s">
-        <v>208</v>
+        <v>224</v>
       </c>
       <c r="D27" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="E27" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="F27" t="s">
         <v>94</v>
       </c>
       <c r="G27" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H27" t="s">
-        <v>271</v>
+        <v>288</v>
       </c>
       <c r="I27" t="s">
-        <v>314</v>
+        <v>325</v>
       </c>
       <c r="J27" t="n">
-        <v>11.0</v>
+        <v>9.0</v>
       </c>
       <c r="K27" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="L27" t="n">
-        <v>552.0</v>
+        <v>664.0</v>
       </c>
       <c r="M27" t="n">
-        <v>6.1</v>
+        <v>7.4</v>
       </c>
       <c r="N27" t="n">
         <v>0.0</v>
       </c>
       <c r="O27" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="P27" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q27" t="n">
         <v>0.0</v>
@@ -9967,63 +10056,63 @@
         <v>0.0</v>
       </c>
       <c r="T27" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="U27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V27" t="n">
-        <v>0.3</v>
+        <v>0.0</v>
       </c>
       <c r="W27" t="n">
-        <v>0.3</v>
+        <v>0.0</v>
       </c>
       <c r="X27" t="n">
-        <v>2.7</v>
+        <v>0.0</v>
       </c>
       <c r="Y27" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z27" t="n">
-        <v>16.0</v>
+        <v>6.0</v>
       </c>
       <c r="AA27" t="n">
-        <v>48.0</v>
+        <v>25.0</v>
       </c>
       <c r="AB27" t="n">
-        <v>21.0</v>
+        <v>26.0</v>
       </c>
       <c r="AC27" t="n">
         <v>0.0</v>
       </c>
       <c r="AD27" t="n">
-        <v>0.33</v>
+        <v>0.0</v>
       </c>
       <c r="AE27" t="n">
-        <v>0.33</v>
+        <v>0.0</v>
       </c>
       <c r="AF27" t="n">
         <v>0.0</v>
       </c>
       <c r="AG27" t="n">
-        <v>0.33</v>
+        <v>0.0</v>
       </c>
       <c r="AH27" t="n">
-        <v>0.05</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>197</v>
+        <v>167</v>
       </c>
       <c r="B28" t="n">
-        <v>1811.0</v>
+        <v>1427.0</v>
       </c>
       <c r="C28" t="s">
-        <v>240</v>
+        <v>210</v>
       </c>
       <c r="D28" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="E28" t="s">
         <v>265</v>
@@ -10032,34 +10121,34 @@
         <v>94</v>
       </c>
       <c r="G28" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H28" t="s">
-        <v>303</v>
+        <v>274</v>
       </c>
       <c r="I28" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="J28" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="K28" t="n">
-        <v>10.0</v>
+        <v>5.0</v>
       </c>
       <c r="L28" t="n">
-        <v>907.0</v>
+        <v>597.0</v>
       </c>
       <c r="M28" t="n">
-        <v>10.1</v>
+        <v>6.6</v>
       </c>
       <c r="N28" t="n">
         <v>0.0</v>
       </c>
       <c r="O28" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="P28" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="Q28" t="n">
         <v>0.0</v>
@@ -10071,49 +10160,49 @@
         <v>0.0</v>
       </c>
       <c r="T28" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="U28" t="n">
         <v>0.0</v>
       </c>
       <c r="V28" t="n">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="W28" t="n">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="X28" t="n">
-        <v>0.0</v>
+        <v>2.7</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.7</v>
+        <v>3.0</v>
       </c>
       <c r="Z28" t="n">
-        <v>8.0</v>
+        <v>17.0</v>
       </c>
       <c r="AA28" t="n">
-        <v>39.0</v>
+        <v>53.0</v>
       </c>
       <c r="AB28" t="n">
-        <v>1.0</v>
+        <v>23.0</v>
       </c>
       <c r="AC28" t="n">
         <v>0.0</v>
       </c>
       <c r="AD28" t="n">
-        <v>0.0</v>
+        <v>0.3</v>
       </c>
       <c r="AE28" t="n">
-        <v>0.0</v>
+        <v>0.3</v>
       </c>
       <c r="AF28" t="n">
         <v>0.0</v>
       </c>
       <c r="AG28" t="n">
-        <v>0.0</v>
+        <v>0.3</v>
       </c>
       <c r="AH28" t="n">
-        <v>0.07</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="29">
@@ -10121,13 +10210,13 @@
         <v>198</v>
       </c>
       <c r="B29" t="n">
-        <v>2048.0</v>
+        <v>1822.0</v>
       </c>
       <c r="C29" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D29" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="E29" t="s">
         <v>267</v>
@@ -10136,25 +10225,25 @@
         <v>94</v>
       </c>
       <c r="G29" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H29" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="I29" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="J29" t="n">
-        <v>10.0</v>
+        <v>12.0</v>
       </c>
       <c r="K29" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="L29" t="n">
-        <v>844.0</v>
+        <v>997.0</v>
       </c>
       <c r="M29" t="n">
-        <v>9.4</v>
+        <v>11.1</v>
       </c>
       <c r="N29" t="n">
         <v>0.0</v>
@@ -10181,25 +10270,25 @@
         <v>0.0</v>
       </c>
       <c r="V29" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="W29" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="X29" t="n">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="Z29" t="n">
         <v>9.0</v>
       </c>
       <c r="AA29" t="n">
-        <v>79.0</v>
+        <v>44.0</v>
       </c>
       <c r="AB29" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="AC29" t="n">
         <v>0.0</v>
@@ -10217,7 +10306,7 @@
         <v>0.0</v>
       </c>
       <c r="AH29" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="30">
@@ -10225,40 +10314,40 @@
         <v>199</v>
       </c>
       <c r="B30" t="n">
-        <v>2130.0</v>
+        <v>2062.0</v>
       </c>
       <c r="C30" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D30" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="E30" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="F30" t="s">
         <v>94</v>
       </c>
       <c r="G30" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H30" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="I30" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="J30" t="n">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
       <c r="K30" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="L30" t="n">
-        <v>11.0</v>
+        <v>844.0</v>
       </c>
       <c r="M30" t="n">
-        <v>0.1</v>
+        <v>9.4</v>
       </c>
       <c r="N30" t="n">
         <v>0.0</v>
@@ -10285,25 +10374,25 @@
         <v>0.0</v>
       </c>
       <c r="V30" t="n">
-        <v>0.0</v>
+        <v>0.5</v>
       </c>
       <c r="W30" t="n">
-        <v>0.0</v>
+        <v>0.5</v>
       </c>
       <c r="X30" t="n">
-        <v>0.0</v>
+        <v>0.3</v>
       </c>
       <c r="Y30" t="n">
-        <v>0.0</v>
+        <v>0.9</v>
       </c>
       <c r="Z30" t="n">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
       <c r="AA30" t="n">
-        <v>0.0</v>
+        <v>79.0</v>
       </c>
       <c r="AB30" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="AC30" t="n">
         <v>0.0</v>
@@ -10321,48 +10410,48 @@
         <v>0.0</v>
       </c>
       <c r="AH30" t="n">
-        <v>0.0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="B31" t="n">
-        <v>118.0</v>
+        <v>2145.0</v>
       </c>
       <c r="C31" t="s">
-        <v>224</v>
+        <v>244</v>
       </c>
       <c r="D31" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E31" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="F31" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G31" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H31" t="s">
-        <v>287</v>
+        <v>308</v>
       </c>
       <c r="I31" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="J31" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L31" t="n">
         <v>11.0</v>
       </c>
-      <c r="K31" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>972.0</v>
-      </c>
       <c r="M31" t="n">
-        <v>10.8</v>
+        <v>0.1</v>
       </c>
       <c r="N31" t="n">
         <v>0.0</v>
@@ -10383,31 +10472,31 @@
         <v>0.0</v>
       </c>
       <c r="T31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="U31" t="n">
         <v>0.0</v>
       </c>
       <c r="V31" t="n">
-        <v>0.1</v>
+        <v>0.0</v>
       </c>
       <c r="W31" t="n">
-        <v>0.1</v>
+        <v>0.0</v>
       </c>
       <c r="X31" t="n">
-        <v>0.6</v>
+        <v>0.0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0.7</v>
+        <v>0.0</v>
       </c>
       <c r="Z31" t="n">
-        <v>35.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA31" t="n">
-        <v>33.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB31" t="n">
-        <v>54.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC31" t="n">
         <v>0.0</v>
@@ -10430,43 +10519,43 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="B32" t="n">
-        <v>123.0</v>
+        <v>118.0</v>
       </c>
       <c r="C32" t="s">
-        <v>243</v>
+        <v>226</v>
       </c>
       <c r="D32" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E32" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="F32" t="s">
         <v>97</v>
       </c>
       <c r="G32" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H32" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
       <c r="I32" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="J32" t="n">
-        <v>2.0</v>
+        <v>12.0</v>
       </c>
       <c r="K32" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>18.0</v>
+        <v>12.0</v>
+      </c>
+      <c r="L32" t="e">
+        <v>#N/A</v>
       </c>
       <c r="M32" t="n">
-        <v>0.2</v>
+        <v>11.8</v>
       </c>
       <c r="N32" t="n">
         <v>0.0</v>
@@ -10487,31 +10576,31 @@
         <v>0.0</v>
       </c>
       <c r="T32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="U32" t="n">
         <v>0.0</v>
       </c>
       <c r="V32" t="n">
-        <v>0.0</v>
+        <v>0.1</v>
       </c>
       <c r="W32" t="n">
-        <v>0.0</v>
+        <v>0.1</v>
       </c>
       <c r="X32" t="n">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="Y32" t="n">
-        <v>0.1</v>
+        <v>0.7</v>
       </c>
       <c r="Z32" t="n">
-        <v>2.0</v>
+        <v>36.0</v>
       </c>
       <c r="AA32" t="n">
-        <v>1.0</v>
+        <v>36.0</v>
       </c>
       <c r="AB32" t="n">
-        <v>3.0</v>
+        <v>57.0</v>
       </c>
       <c r="AC32" t="n">
         <v>0.0</v>
@@ -10537,40 +10626,40 @@
         <v>201</v>
       </c>
       <c r="B33" t="n">
-        <v>238.0</v>
+        <v>123.0</v>
       </c>
       <c r="C33" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D33" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E33" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F33" t="s">
         <v>97</v>
       </c>
       <c r="G33" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H33" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="I33" t="s">
         <v>325</v>
       </c>
       <c r="J33" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="K33" t="n">
         <v>0.0</v>
       </c>
       <c r="L33" t="n">
-        <v>37.0</v>
+        <v>27.0</v>
       </c>
       <c r="M33" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N33" t="n">
         <v>0.0</v>
@@ -10603,19 +10692,19 @@
         <v>0.0</v>
       </c>
       <c r="X33" t="n">
-        <v>0.0</v>
+        <v>0.1</v>
       </c>
       <c r="Y33" t="n">
-        <v>0.0</v>
+        <v>0.1</v>
       </c>
       <c r="Z33" t="n">
         <v>2.0</v>
       </c>
       <c r="AA33" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="AB33" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="AC33" t="n">
         <v>0.0</v>
@@ -10633,48 +10722,48 @@
         <v>0.0</v>
       </c>
       <c r="AH33" t="n">
-        <v>0.0</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="B34" t="n">
-        <v>402.0</v>
+        <v>239.0</v>
       </c>
       <c r="C34" t="s">
-        <v>226</v>
+        <v>246</v>
       </c>
       <c r="D34" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E34" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F34" t="s">
         <v>97</v>
       </c>
       <c r="G34" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H34" t="s">
-        <v>289</v>
+        <v>310</v>
       </c>
       <c r="I34" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="J34" t="n">
-        <v>11.0</v>
+        <v>2.0</v>
       </c>
       <c r="K34" t="n">
-        <v>11.0</v>
+        <v>0.0</v>
       </c>
       <c r="L34" t="n">
-        <v>990.0</v>
+        <v>37.0</v>
       </c>
       <c r="M34" t="n">
-        <v>11.0</v>
+        <v>0.4</v>
       </c>
       <c r="N34" t="n">
         <v>0.0</v>
@@ -10695,31 +10784,31 @@
         <v>0.0</v>
       </c>
       <c r="T34" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="U34" t="n">
         <v>0.0</v>
       </c>
       <c r="V34" t="n">
-        <v>0.5</v>
+        <v>0.0</v>
       </c>
       <c r="W34" t="n">
-        <v>0.5</v>
+        <v>0.0</v>
       </c>
       <c r="X34" t="n">
         <v>0.0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0.5</v>
+        <v>0.0</v>
       </c>
       <c r="Z34" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="AA34" t="n">
-        <v>31.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB34" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="AC34" t="n">
         <v>0.0</v>
@@ -10737,93 +10826,93 @@
         <v>0.0</v>
       </c>
       <c r="AH34" t="n">
-        <v>0.04</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="B35" t="n">
-        <v>496.0</v>
+        <v>403.0</v>
       </c>
       <c r="C35" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="D35" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E35" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="F35" t="s">
         <v>97</v>
       </c>
       <c r="G35" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H35" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="I35" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="J35" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="L35" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M35" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Z35" t="n">
         <v>6.0</v>
       </c>
-      <c r="K35" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>378.0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="W35" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="X35" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="Z35" t="n">
-        <v>5.0</v>
-      </c>
       <c r="AA35" t="n">
-        <v>13.0</v>
+        <v>31.0</v>
       </c>
       <c r="AB35" t="n">
-        <v>7.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC35" t="n">
         <v>0.0</v>
@@ -10841,48 +10930,48 @@
         <v>0.0</v>
       </c>
       <c r="AH35" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B36" t="n">
-        <v>810.0</v>
+        <v>497.0</v>
       </c>
       <c r="C36" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D36" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E36" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="F36" t="s">
         <v>97</v>
       </c>
       <c r="G36" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H36" t="s">
         <v>292</v>
       </c>
       <c r="I36" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="J36" t="n">
-        <v>11.0</v>
+        <v>6.0</v>
       </c>
       <c r="K36" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="L36" t="n">
-        <v>347.0</v>
+        <v>378.0</v>
       </c>
       <c r="M36" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="N36" t="n">
         <v>0.0</v>
@@ -10915,19 +11004,19 @@
         <v>0.1</v>
       </c>
       <c r="X36" t="n">
-        <v>0.2</v>
+        <v>0.0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="Z36" t="n">
         <v>5.0</v>
       </c>
       <c r="AA36" t="n">
-        <v>18.0</v>
+        <v>13.0</v>
       </c>
       <c r="AB36" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="AC36" t="n">
         <v>0.0</v>
@@ -10945,42 +11034,42 @@
         <v>0.0</v>
       </c>
       <c r="AH36" t="n">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="B37" t="n">
-        <v>917.0</v>
+        <v>815.0</v>
       </c>
       <c r="C37" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="D37" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E37" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F37" t="s">
         <v>97</v>
       </c>
       <c r="G37" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H37" t="s">
-        <v>278</v>
+        <v>294</v>
       </c>
       <c r="I37" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="J37" t="n">
-        <v>5.0</v>
+        <v>12.0</v>
       </c>
       <c r="K37" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="L37" t="n">
         <v>367.0</v>
@@ -11007,7 +11096,7 @@
         <v>0.0</v>
       </c>
       <c r="T37" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="U37" t="n">
         <v>0.0</v>
@@ -11019,20 +11108,20 @@
         <v>0.1</v>
       </c>
       <c r="X37" t="n">
-        <v>0.0</v>
+        <v>0.2</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="Z37" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="AA37" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="AB37" t="n">
         <v>7.0</v>
       </c>
-      <c r="AB37" t="n">
-        <v>1.0</v>
-      </c>
       <c r="AC37" t="n">
         <v>0.0</v>
       </c>
@@ -11049,7 +11138,7 @@
         <v>0.0</v>
       </c>
       <c r="AH37" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="38">
@@ -11057,40 +11146,40 @@
         <v>173</v>
       </c>
       <c r="B38" t="n">
-        <v>919.0</v>
+        <v>922.0</v>
       </c>
       <c r="C38" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D38" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E38" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F38" t="s">
         <v>97</v>
       </c>
       <c r="G38" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H38" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="I38" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="J38" t="n">
-        <v>12.0</v>
+        <v>5.0</v>
       </c>
       <c r="K38" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="L38" t="e">
-        <v>#N/A</v>
+        <v>4.0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>367.0</v>
       </c>
       <c r="M38" t="n">
-        <v>12.0</v>
+        <v>4.1</v>
       </c>
       <c r="N38" t="n">
         <v>0.0</v>
@@ -11117,25 +11206,25 @@
         <v>0.0</v>
       </c>
       <c r="V38" t="n">
-        <v>0.0</v>
+        <v>0.1</v>
       </c>
       <c r="W38" t="n">
-        <v>0.0</v>
+        <v>0.1</v>
       </c>
       <c r="X38" t="n">
         <v>0.0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0.0</v>
+        <v>0.1</v>
       </c>
       <c r="Z38" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="AA38" t="n">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="AB38" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AC38" t="n">
         <v>0.0</v>
@@ -11153,57 +11242,57 @@
         <v>0.0</v>
       </c>
       <c r="AH38" t="n">
-        <v>0.0</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="B39" t="n">
-        <v>956.0</v>
+        <v>924.0</v>
       </c>
       <c r="C39" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="D39" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E39" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="F39" t="s">
         <v>97</v>
       </c>
       <c r="G39" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H39" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="I39" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="J39" t="n">
-        <v>11.0</v>
+        <v>13.0</v>
       </c>
       <c r="K39" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="L39" t="n">
-        <v>405.0</v>
+        <v>13.0</v>
+      </c>
+      <c r="L39" t="e">
+        <v>#N/A</v>
       </c>
       <c r="M39" t="n">
-        <v>4.5</v>
+        <v>13.0</v>
       </c>
       <c r="N39" t="n">
         <v>0.0</v>
       </c>
       <c r="O39" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P39" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q39" t="n">
         <v>0.0</v>
@@ -11215,99 +11304,99 @@
         <v>0.0</v>
       </c>
       <c r="T39" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="U39" t="n">
         <v>0.0</v>
       </c>
       <c r="V39" t="n">
-        <v>0.9</v>
+        <v>0.0</v>
       </c>
       <c r="W39" t="n">
-        <v>0.9</v>
+        <v>0.0</v>
       </c>
       <c r="X39" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y39" t="n">
-        <v>1.9</v>
+        <v>0.0</v>
       </c>
       <c r="Z39" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA39" t="n">
-        <v>17.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB39" t="n">
-        <v>8.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC39" t="n">
         <v>0.0</v>
       </c>
       <c r="AD39" t="n">
-        <v>0.22</v>
+        <v>0.0</v>
       </c>
       <c r="AE39" t="n">
-        <v>0.22</v>
+        <v>0.0</v>
       </c>
       <c r="AF39" t="n">
         <v>0.0</v>
       </c>
       <c r="AG39" t="n">
-        <v>0.22</v>
+        <v>0.0</v>
       </c>
       <c r="AH39" t="n">
-        <v>0.2</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="B40" t="n">
-        <v>1315.0</v>
+        <v>961.0</v>
       </c>
       <c r="C40" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="D40" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E40" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F40" t="s">
         <v>97</v>
       </c>
       <c r="G40" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H40" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="I40" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="J40" t="n">
-        <v>1.0</v>
+        <v>11.0</v>
       </c>
       <c r="K40" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="L40" t="n">
-        <v>6.0</v>
+        <v>405.0</v>
       </c>
       <c r="M40" t="n">
-        <v>0.1</v>
+        <v>4.5</v>
       </c>
       <c r="N40" t="n">
         <v>0.0</v>
       </c>
       <c r="O40" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P40" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q40" t="n">
         <v>0.0</v>
@@ -11319,90 +11408,90 @@
         <v>0.0</v>
       </c>
       <c r="T40" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="U40" t="n">
         <v>0.0</v>
       </c>
       <c r="V40" t="n">
-        <v>0.0</v>
+        <v>0.9</v>
       </c>
       <c r="W40" t="n">
-        <v>0.0</v>
+        <v>0.9</v>
       </c>
       <c r="X40" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0.0</v>
+        <v>1.9</v>
       </c>
       <c r="Z40" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="AA40" t="n">
-        <v>1.0</v>
+        <v>17.0</v>
       </c>
       <c r="AB40" t="n">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="AC40" t="n">
         <v>0.0</v>
       </c>
       <c r="AD40" t="n">
-        <v>0.0</v>
+        <v>0.22</v>
       </c>
       <c r="AE40" t="n">
-        <v>0.0</v>
+        <v>0.22</v>
       </c>
       <c r="AF40" t="n">
         <v>0.0</v>
       </c>
       <c r="AG40" t="n">
-        <v>0.0</v>
+        <v>0.22</v>
       </c>
       <c r="AH40" t="n">
-        <v>0.0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>165</v>
+        <v>203</v>
       </c>
       <c r="B41" t="n">
-        <v>1424.0</v>
+        <v>1323.0</v>
       </c>
       <c r="C41" t="s">
-        <v>207</v>
+        <v>247</v>
       </c>
       <c r="D41" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E41" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="F41" t="s">
         <v>97</v>
       </c>
       <c r="G41" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H41" t="s">
-        <v>270</v>
+        <v>311</v>
       </c>
       <c r="I41" t="s">
-        <v>313</v>
+        <v>327</v>
       </c>
       <c r="J41" t="n">
-        <v>11.0</v>
+        <v>1.0</v>
       </c>
       <c r="K41" t="n">
-        <v>8.0</v>
+        <v>0.0</v>
       </c>
       <c r="L41" t="n">
-        <v>690.0</v>
+        <v>6.0</v>
       </c>
       <c r="M41" t="n">
-        <v>7.7</v>
+        <v>0.1</v>
       </c>
       <c r="N41" t="n">
         <v>0.0</v>
@@ -11423,31 +11512,31 @@
         <v>0.0</v>
       </c>
       <c r="T41" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="U41" t="n">
         <v>0.0</v>
       </c>
       <c r="V41" t="n">
-        <v>0.6</v>
+        <v>0.0</v>
       </c>
       <c r="W41" t="n">
-        <v>0.6</v>
+        <v>0.0</v>
       </c>
       <c r="X41" t="n">
-        <v>1.7</v>
+        <v>0.0</v>
       </c>
       <c r="Y41" t="n">
-        <v>2.3</v>
+        <v>0.0</v>
       </c>
       <c r="Z41" t="n">
-        <v>7.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA41" t="n">
-        <v>31.0</v>
+        <v>1.0</v>
       </c>
       <c r="AB41" t="n">
-        <v>19.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC41" t="n">
         <v>0.0</v>
@@ -11465,48 +11554,48 @@
         <v>0.0</v>
       </c>
       <c r="AH41" t="n">
-        <v>0.08</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>203</v>
+        <v>165</v>
       </c>
       <c r="B42" t="n">
-        <v>1463.0</v>
+        <v>1434.0</v>
       </c>
       <c r="C42" t="s">
-        <v>246</v>
+        <v>208</v>
       </c>
       <c r="D42" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E42" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F42" t="s">
         <v>97</v>
       </c>
       <c r="G42" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H42" t="s">
-        <v>309</v>
+        <v>272</v>
       </c>
       <c r="I42" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="J42" t="n">
-        <v>2.0</v>
+        <v>12.0</v>
       </c>
       <c r="K42" t="n">
-        <v>1.0</v>
+        <v>9.0</v>
       </c>
       <c r="L42" t="n">
-        <v>49.0</v>
+        <v>770.0</v>
       </c>
       <c r="M42" t="n">
-        <v>0.5</v>
+        <v>8.6</v>
       </c>
       <c r="N42" t="n">
         <v>0.0</v>
@@ -11527,31 +11616,31 @@
         <v>0.0</v>
       </c>
       <c r="T42" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="U42" t="n">
         <v>0.0</v>
       </c>
       <c r="V42" t="n">
-        <v>0.0</v>
+        <v>0.6</v>
       </c>
       <c r="W42" t="n">
-        <v>0.0</v>
+        <v>0.6</v>
       </c>
       <c r="X42" t="n">
-        <v>0.0</v>
+        <v>1.7</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.0</v>
+        <v>2.3</v>
       </c>
       <c r="Z42" t="n">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
       <c r="AA42" t="n">
-        <v>2.0</v>
+        <v>31.0</v>
       </c>
       <c r="AB42" t="n">
-        <v>1.0</v>
+        <v>19.0</v>
       </c>
       <c r="AC42" t="n">
         <v>0.0</v>
@@ -11569,48 +11658,48 @@
         <v>0.0</v>
       </c>
       <c r="AH42" t="n">
-        <v>0.0</v>
+        <v>0.07</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="B43" t="n">
-        <v>1653.0</v>
+        <v>1473.0</v>
       </c>
       <c r="C43" t="s">
-        <v>232</v>
+        <v>248</v>
       </c>
       <c r="D43" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E43" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F43" t="s">
         <v>97</v>
       </c>
       <c r="G43" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H43" t="s">
-        <v>295</v>
+        <v>312</v>
       </c>
       <c r="I43" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="J43" t="n">
-        <v>10.0</v>
+        <v>3.0</v>
       </c>
       <c r="K43" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="L43" t="n">
-        <v>331.0</v>
+        <v>59.0</v>
       </c>
       <c r="M43" t="n">
-        <v>3.7</v>
+        <v>0.7</v>
       </c>
       <c r="N43" t="n">
         <v>0.0</v>
@@ -11631,31 +11720,31 @@
         <v>0.0</v>
       </c>
       <c r="T43" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="U43" t="n">
         <v>0.0</v>
       </c>
       <c r="V43" t="n">
-        <v>0.5</v>
+        <v>0.0</v>
       </c>
       <c r="W43" t="n">
-        <v>0.5</v>
+        <v>0.0</v>
       </c>
       <c r="X43" t="n">
-        <v>0.2</v>
+        <v>0.0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0.8</v>
+        <v>0.0</v>
       </c>
       <c r="Z43" t="n">
-        <v>8.0</v>
+        <v>1.0</v>
       </c>
       <c r="AA43" t="n">
-        <v>9.0</v>
+        <v>2.0</v>
       </c>
       <c r="AB43" t="n">
-        <v>19.0</v>
+        <v>1.0</v>
       </c>
       <c r="AC43" t="n">
         <v>0.0</v>
@@ -11673,110 +11762,214 @@
         <v>0.0</v>
       </c>
       <c r="AH43" t="n">
-        <v>0.15</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="B44" t="n">
-        <v>2164.0</v>
+        <v>1664.0</v>
       </c>
       <c r="C44" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="D44" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E44" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F44" t="s">
         <v>97</v>
       </c>
       <c r="G44" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H44" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
       <c r="I44" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="J44" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="K44" t="n">
         <v>4.0</v>
       </c>
-      <c r="K44" t="n">
-        <v>1.0</v>
-      </c>
       <c r="L44" t="n">
+        <v>389.0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="W44" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X44" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>206</v>
+      </c>
+      <c r="B45" t="n">
+        <v>2179.0</v>
+      </c>
+      <c r="C45" t="s">
+        <v>250</v>
+      </c>
+      <c r="D45" t="s">
+        <v>252</v>
+      </c>
+      <c r="E45" t="s">
+        <v>267</v>
+      </c>
+      <c r="F45" t="s">
+        <v>97</v>
+      </c>
+      <c r="G45" t="s">
+        <v>270</v>
+      </c>
+      <c r="H45" t="s">
+        <v>314</v>
+      </c>
+      <c r="I45" t="s">
+        <v>325</v>
+      </c>
+      <c r="J45" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="K45" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L45" t="n">
         <v>116.0</v>
       </c>
-      <c r="M44" t="n">
+      <c r="M45" t="n">
         <v>1.3</v>
       </c>
-      <c r="N44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="X44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Y44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Z44" t="n">
+      <c r="N45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z45" t="n">
         <v>2.0</v>
       </c>
-      <c r="AA44" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AB44" t="n">
+      <c r="AA45" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AB45" t="n">
         <v>5.0</v>
       </c>
-      <c r="AC44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AD44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AE44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AF44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AG44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AH44" t="n">
+      <c r="AC45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AH45" t="n">
         <v>0.0</v>
       </c>
     </row>
